--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3632527.006803833</v>
+        <v>3626682.871798704</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256413</v>
+        <v>6239134.533256414</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.9721069182</v>
+        <v>840694.972106918</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7983889.33372843</v>
+        <v>7983889.333728429</v>
       </c>
     </row>
     <row r="11">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>227.2386140365968</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,25 +706,25 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>6.745482822937411</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984489</v>
+        <v>196.8897623984484</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>81.7337597227494</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923383</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -882,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -898,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>375.7365975466366</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>79.49282700064464</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250752</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1053,25 +1053,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>65.51651982872605</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>59.6638564154453</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>19.60191739842427</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>83.85112090809108</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1299,13 +1299,13 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>95.26725446313655</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1344,19 +1344,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>83.58354151325308</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
         <v>204.3497241367009</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1584,19 +1584,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2142514133935</v>
+        <v>189.0492656576726</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>91.37185271005154</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1821,16 +1821,16 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>135.2009709794781</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>123.0421684980972</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1897,10 +1897,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T17" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T19" t="n">
         <v>219.7379838856521</v>
@@ -2061,10 +2061,10 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>62.67713680540511</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2131,13 +2131,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T20" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U20" t="n">
-        <v>251.0030623803228</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2256,10 +2256,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>216.7910548471524</v>
       </c>
       <c r="V22" t="n">
-        <v>54.02174280300509</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,16 +2484,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2532,19 +2532,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>126.9145352685606</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>3.846722125167206</v>
       </c>
     </row>
     <row r="26">
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>190.5400452173542</v>
@@ -2769,19 +2769,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>215.8904032994091</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>226.4311581865584</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,25 +2949,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>145.148367782564</v>
+        <v>16.86931745267245</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>245.4172940207911</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3195,16 +3195,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,25 +3234,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2142514133935</v>
+        <v>28.68313558002648</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>152.3463547161364</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="36">
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3441,10 +3441,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T37" t="n">
         <v>219.7379838856521</v>
@@ -3483,16 +3483,16 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>77.64654771596246</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3559,7 +3559,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>67.57137291817962</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,19 +3708,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>163.7744690895572</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>411.0203559212046</v>
       </c>
       <c r="H41" t="n">
-        <v>295.6178616169271</v>
+        <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040308</v>
+        <v>45.37937317040314</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.435299014555</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U41" t="n">
-        <v>251.0030623803237</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.7311006784682</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
@@ -3954,19 +3954,19 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2142514133935</v>
+        <v>135.2009709794781</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>146.334010720681</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -4137,16 +4137,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,13 +4185,13 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>130.4482050673214</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U46" t="n">
-        <v>175.1170982265955</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2072.529454785695</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C2" t="n">
-        <v>1703.566937845283</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D2" t="n">
-        <v>1345.301239238533</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="E2" t="n">
-        <v>959.5129866402885</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="F2" t="n">
-        <v>548.527081850681</v>
+        <v>701.4407434944976</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>283.4769353926845</v>
       </c>
       <c r="H2" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T2" t="n">
-        <v>2459.129294849817</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2459.129294849817</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2459.129294849817</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>2459.129294849817</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>2459.129294849817</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y2" t="n">
-        <v>2459.129294849817</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="3">
@@ -4406,37 +4406,37 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036444</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.1903022614629</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152625</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
         <v>2289.884200196743</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C4" t="n">
-        <v>190.2718927217162</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D4" t="n">
-        <v>190.2718927217162</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>190.2718927217162</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>190.2718927217162</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4518,22 +4518,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>272.8312459770186</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1780.41262192169</v>
+        <v>1571.689018870909</v>
       </c>
       <c r="C5" t="n">
-        <v>1780.41262192169</v>
+        <v>1202.726501930497</v>
       </c>
       <c r="D5" t="n">
-        <v>1422.14692331494</v>
+        <v>844.4608033237464</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>844.4608033237464</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>433.4748985341388</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2311.057514205144</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="X5" t="n">
-        <v>2247.308246834948</v>
+        <v>1958.28885893503</v>
       </c>
       <c r="Y5" t="n">
-        <v>2167.012461985812</v>
+        <v>1958.28885893503</v>
       </c>
     </row>
     <row r="6">
@@ -4622,43 +4622,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.4979752170821</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.0449459359551</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747037</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692488</v>
+        <v>505.8730812692481</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961333</v>
       </c>
       <c r="G6" t="n">
         <v>221.4284102423999</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673417</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036444</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641985</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598704</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O6" t="n">
         <v>2188.831293537796</v>
@@ -4673,16 +4673,16 @@
         <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073962</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196741</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167582</v>
+        <v>2061.714576167581</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.562467935838</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207637</v>
@@ -4691,7 +4691,7 @@
         <v>1364.473611002104</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.71331223715</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036444</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036444</v>
+        <v>578.0123447940985</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036444</v>
+        <v>430.0992512117053</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036444</v>
+        <v>283.209303713795</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036444</v>
+        <v>114.2095034521274</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036444</v>
@@ -4746,31 +4746,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>409.5384547146241</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>120.1212846776635</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>120.1212846776635</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>120.1212846776635</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1646.746562480845</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="C8" t="n">
-        <v>1626.94664591678</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="D8" t="n">
-        <v>1268.68094731003</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="E8" t="n">
-        <v>882.8926947117852</v>
+        <v>159.5099885583417</v>
       </c>
       <c r="F8" t="n">
-        <v>471.9067899221776</v>
+        <v>152.5644878091383</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>138.6410837477292</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2423.485734520778</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>2423.485734520778</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W8" t="n">
-        <v>2423.485734520778</v>
+        <v>1309.714918859355</v>
       </c>
       <c r="X8" t="n">
-        <v>2423.485734520778</v>
+        <v>936.2491605982752</v>
       </c>
       <c r="Y8" t="n">
-        <v>2033.346402544967</v>
+        <v>546.1098286224635</v>
       </c>
     </row>
     <row r="9">
@@ -4874,13 +4874,13 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
@@ -4895,13 +4895,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>319.1723320447962</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="C10" t="n">
-        <v>319.1723320447962</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="D10" t="n">
-        <v>319.1723320447962</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="E10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="F10" t="n">
-        <v>222.942782082032</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -4992,22 +4992,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>500.820796875036</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>500.820796875036</v>
+        <v>473.4444960005474</v>
       </c>
       <c r="W10" t="n">
-        <v>500.820796875036</v>
+        <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>500.820796875036</v>
+        <v>99.59950625323009</v>
       </c>
       <c r="Y10" t="n">
-        <v>500.820796875036</v>
+        <v>99.59950625323009</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E11" t="n">
         <v>1266.317301993267</v>
@@ -5044,25 +5044,25 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K11" t="n">
-        <v>1086.017693327009</v>
+        <v>765.1137348815558</v>
       </c>
       <c r="L11" t="n">
-        <v>1521.642956557056</v>
+        <v>1614.223600516548</v>
       </c>
       <c r="M11" t="n">
-        <v>2038.029435346739</v>
+        <v>2130.610079306232</v>
       </c>
       <c r="N11" t="n">
-        <v>3000.358850775379</v>
+        <v>3092.939494734872</v>
       </c>
       <c r="O11" t="n">
-        <v>3795.944346689563</v>
+        <v>3579.460055993904</v>
       </c>
       <c r="P11" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q11" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R11" t="n">
         <v>4785.883460762037</v>
@@ -5120,7 +5120,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J12" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K12" t="n">
         <v>488.1430095111818</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>808.2431309181712</v>
+        <v>580.3144713837966</v>
       </c>
       <c r="C13" t="n">
-        <v>639.3069479902643</v>
+        <v>411.3782884558896</v>
       </c>
       <c r="D13" t="n">
-        <v>489.1903085779286</v>
+        <v>411.3782884558896</v>
       </c>
       <c r="E13" t="n">
-        <v>341.2772149955355</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="F13" t="n">
-        <v>194.3872674976251</v>
+        <v>263.4651948734965</v>
       </c>
       <c r="G13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H13" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I13" t="n">
         <v>95.71766921524075</v>
@@ -5223,28 +5223,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T13" t="n">
-        <v>1599.281251821625</v>
+        <v>1691.121090492214</v>
       </c>
       <c r="U13" t="n">
-        <v>1310.175947363652</v>
+        <v>1500.162236292545</v>
       </c>
       <c r="V13" t="n">
-        <v>1310.175947363652</v>
+        <v>1500.162236292545</v>
       </c>
       <c r="W13" t="n">
-        <v>1217.881146646428</v>
+        <v>1210.745066255584</v>
       </c>
       <c r="X13" t="n">
-        <v>989.891595748411</v>
+        <v>982.7555153575664</v>
       </c>
       <c r="Y13" t="n">
-        <v>989.891595748411</v>
+        <v>761.9629362140363</v>
       </c>
     </row>
     <row r="14">
@@ -5263,13 +5263,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E14" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5281,25 +5281,25 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K14" t="n">
-        <v>1086.017693327009</v>
+        <v>765.1137348815558</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.642956557056</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M14" t="n">
-        <v>2192.883804966332</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N14" t="n">
-        <v>2722.239765227108</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O14" t="n">
-        <v>3585.752505936257</v>
+        <v>3610.993851746863</v>
       </c>
       <c r="P14" t="n">
-        <v>4285.066269150654</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q14" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R14" t="n">
         <v>4785.883460762037</v>
@@ -5317,10 +5317,10 @@
         <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5357,19 +5357,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K15" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L15" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M15" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N15" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439725</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>807.0544736485201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C16" t="n">
-        <v>807.0544736485201</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D16" t="n">
-        <v>656.9378342361844</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E16" t="n">
-        <v>509.0247406537912</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F16" t="n">
-        <v>362.1347931558809</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H16" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I16" t="n">
         <v>95.71766921524075</v>
@@ -5469,19 +5469,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U16" t="n">
-        <v>1406.816559682884</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V16" t="n">
-        <v>1152.132071476997</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W16" t="n">
-        <v>1027.84705279205</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X16" t="n">
-        <v>1027.84705279205</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y16" t="n">
-        <v>807.0544736485201</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="17">
@@ -5509,10 +5509,10 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H17" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I17" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J17" t="n">
         <v>443.7150397139484</v>
@@ -5521,43 +5521,43 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L17" t="n">
-        <v>1935.127558962002</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M17" t="n">
-        <v>2665.67509109166</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N17" t="n">
-        <v>3628.0045065203</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O17" t="n">
-        <v>4114.525067779332</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P17" t="n">
-        <v>4495.258109903961</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q17" t="n">
-        <v>4733.000021926295</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R17" t="n">
-        <v>4785.883460762038</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S17" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T17" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U17" t="n">
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5591,31 +5591,31 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I18" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K18" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L18" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M18" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N18" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O18" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P18" t="n">
-        <v>2394.844694400679</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q18" t="n">
-        <v>2545.817335043254</v>
+        <v>2587.498588679581</v>
       </c>
       <c r="R18" t="n">
         <v>2587.498588679581</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>708.2749519650746</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C19" t="n">
-        <v>539.3387690371677</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D19" t="n">
-        <v>389.222129624832</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E19" t="n">
-        <v>389.222129624832</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F19" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G19" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H19" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I19" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J19" t="n">
         <v>137.7436613720288</v>
@@ -5700,25 +5700,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T19" t="n">
-        <v>1691.121090492214</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U19" t="n">
-        <v>1402.015786034241</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V19" t="n">
-        <v>1402.015786034241</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W19" t="n">
-        <v>1338.705546836862</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X19" t="n">
-        <v>1110.715995938844</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y19" t="n">
-        <v>889.9234167953143</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="20">
@@ -5737,64 +5737,64 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E20" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F20" t="n">
-        <v>855.3313972036601</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155746</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H20" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I20" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J20" t="n">
-        <v>276.3093906935954</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>918.6120443066559</v>
+        <v>765.1137348815558</v>
       </c>
       <c r="L20" t="n">
-        <v>1767.721909941648</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M20" t="n">
-        <v>2284.108388731332</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N20" t="n">
-        <v>3246.437804159972</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O20" t="n">
-        <v>3904.333227026026</v>
+        <v>3610.993851746863</v>
       </c>
       <c r="P20" t="n">
-        <v>4285.066269150655</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q20" t="n">
-        <v>4733.000021926295</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R20" t="n">
-        <v>4785.883460762038</v>
+        <v>4785.883460762037</v>
       </c>
       <c r="S20" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T20" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U20" t="n">
         <v>4213.370243053372</v>
       </c>
       <c r="V20" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W20" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X20" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y20" t="n">
         <v>2765.933610202796</v>
@@ -5828,13 +5828,13 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I21" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K21" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L21" t="n">
         <v>843.4975491433829</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>432.4013778014034</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="C22" t="n">
-        <v>263.4651948734965</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="D22" t="n">
-        <v>263.4651948734965</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E22" t="n">
-        <v>263.4651948734965</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F22" t="n">
-        <v>263.4651948734965</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G22" t="n">
-        <v>95.71766921524078</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H22" t="n">
-        <v>95.71766921524078</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I22" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J22" t="n">
         <v>137.7436613720288</v>
@@ -5934,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S22" t="n">
-        <v>1628.77411916334</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T22" t="n">
-        <v>1406.816559682884</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U22" t="n">
-        <v>1406.816559682884</v>
+        <v>1501.633094351957</v>
       </c>
       <c r="V22" t="n">
-        <v>1352.249142710151</v>
+        <v>1246.94860614607</v>
       </c>
       <c r="W22" t="n">
-        <v>1062.831972673191</v>
+        <v>957.5314361091092</v>
       </c>
       <c r="X22" t="n">
-        <v>834.8424217751733</v>
+        <v>729.5418852110919</v>
       </c>
       <c r="Y22" t="n">
-        <v>614.0498426316432</v>
+        <v>508.7493060675617</v>
       </c>
     </row>
     <row r="23">
@@ -5974,7 +5974,7 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E23" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F23" t="n">
         <v>855.3313972036599</v>
@@ -5986,31 +5986,31 @@
         <v>141.5554198924157</v>
       </c>
       <c r="I23" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935954</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K23" t="n">
-        <v>918.6120443066559</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L23" t="n">
-        <v>1767.721909941648</v>
+        <v>1327.278034693953</v>
       </c>
       <c r="M23" t="n">
-        <v>2284.108388731332</v>
+        <v>2288.682911641541</v>
       </c>
       <c r="N23" t="n">
-        <v>3246.437804159972</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O23" t="n">
-        <v>3732.958365419004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P23" t="n">
-        <v>4430.198854229707</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q23" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6025,13 +6025,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V23" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W23" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X23" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y23" t="n">
         <v>2765.933610202796</v>
@@ -6065,10 +6065,10 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I24" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K24" t="n">
         <v>488.1430095111818</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1023.935571205723</v>
+        <v>414.7704915554834</v>
       </c>
       <c r="C25" t="n">
-        <v>854.9993882778166</v>
+        <v>245.8343086275765</v>
       </c>
       <c r="D25" t="n">
-        <v>704.8827488654808</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E25" t="n">
-        <v>556.9696552830877</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F25" t="n">
-        <v>410.0797077851773</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G25" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H25" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I25" t="n">
-        <v>95.71766921524078</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J25" t="n">
         <v>137.7436613720288</v>
@@ -6180,19 +6180,19 @@
         <v>1406.816559682884</v>
       </c>
       <c r="U25" t="n">
-        <v>1406.816559682884</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="V25" t="n">
-        <v>1152.132071476997</v>
+        <v>1117.71125522491</v>
       </c>
       <c r="W25" t="n">
-        <v>1152.132071476997</v>
+        <v>828.2940851879498</v>
       </c>
       <c r="X25" t="n">
-        <v>1023.935571205723</v>
+        <v>600.3045342899325</v>
       </c>
       <c r="Y25" t="n">
-        <v>1023.935571205723</v>
+        <v>596.4189563857232</v>
       </c>
     </row>
     <row r="26">
@@ -6220,31 +6220,31 @@
         <v>440.1593205155744</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924157</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K26" t="n">
-        <v>765.1137348815558</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L26" t="n">
-        <v>1200.738998111603</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M26" t="n">
-        <v>1759.910349798468</v>
+        <v>2288.682911641541</v>
       </c>
       <c r="N26" t="n">
-        <v>2722.239765227108</v>
+        <v>3251.012327070182</v>
       </c>
       <c r="O26" t="n">
-        <v>3585.752505936257</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P26" t="n">
-        <v>4285.066269150654</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q26" t="n">
         <v>4733.000021926294</v>
@@ -6305,19 +6305,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K27" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L27" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M27" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N27" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439725</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>706.071406135132</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C28" t="n">
-        <v>537.1352232072251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D28" t="n">
-        <v>537.1352232072251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E28" t="n">
-        <v>389.222129624832</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F28" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G28" t="n">
-        <v>242.3321821269216</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H28" t="n">
         <v>95.71766921524075</v>
@@ -6408,28 +6408,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R28" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S28" t="n">
-        <v>1628.77411916334</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T28" t="n">
-        <v>1406.816559682884</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>1188.745445239036</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V28" t="n">
-        <v>934.0609570331493</v>
+        <v>954.8666056896121</v>
       </c>
       <c r="W28" t="n">
-        <v>934.0609570331493</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X28" t="n">
-        <v>706.071406135132</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y28" t="n">
-        <v>706.071406135132</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="29">
@@ -6457,16 +6457,16 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K29" t="n">
-        <v>918.6120443066559</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L29" t="n">
         <v>1611.438070502395</v>
@@ -6542,25 +6542,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K30" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L30" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M30" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N30" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O30" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P30" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q30" t="n">
         <v>2587.498588679581</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3896.740381995091</v>
+        <v>449.4410924000624</v>
       </c>
       <c r="C31" t="n">
-        <v>3727.804199067184</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="D31" t="n">
-        <v>3577.687559654848</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="E31" t="n">
-        <v>3429.774466072455</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="F31" t="n">
-        <v>3282.884518574544</v>
+        <v>280.5049094721555</v>
       </c>
       <c r="G31" t="n">
-        <v>3115.136992916289</v>
+        <v>112.7573838138998</v>
       </c>
       <c r="H31" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I31" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J31" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L31" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M31" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N31" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O31" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P31" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q31" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R31" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S31" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T31" t="n">
-        <v>4593.418768623295</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U31" t="n">
-        <v>4593.418768623295</v>
+        <v>1623.973345514697</v>
       </c>
       <c r="V31" t="n">
-        <v>4593.418768623295</v>
+        <v>1369.28885730881</v>
       </c>
       <c r="W31" t="n">
-        <v>4345.522512036638</v>
+        <v>1079.87168727185</v>
       </c>
       <c r="X31" t="n">
-        <v>4117.532961138621</v>
+        <v>851.8821363738323</v>
       </c>
       <c r="Y31" t="n">
-        <v>3896.740381995091</v>
+        <v>631.0895572303021</v>
       </c>
     </row>
     <row r="32">
@@ -6703,10 +6703,10 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K32" t="n">
-        <v>765.1137348815558</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L32" t="n">
-        <v>1200.738998111603</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M32" t="n">
         <v>2127.824549292079</v>
@@ -6779,25 +6779,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K33" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L33" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M33" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N33" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O33" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P33" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q33" t="n">
         <v>2587.498588679581</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3434.189815256531</v>
+        <v>709.5735326357868</v>
       </c>
       <c r="C34" t="n">
-        <v>3265.253632328624</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="D34" t="n">
-        <v>3115.136992916289</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E34" t="n">
-        <v>3115.136992916289</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F34" t="n">
-        <v>3115.136992916289</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G34" t="n">
-        <v>3115.136992916289</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H34" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I34" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J34" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L34" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M34" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N34" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O34" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P34" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q34" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R34" t="n">
-        <v>4694.043622091449</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>4501.578929952707</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T34" t="n">
-        <v>4279.62137047225</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U34" t="n">
-        <v>3990.516066014277</v>
+        <v>1884.105785750422</v>
       </c>
       <c r="V34" t="n">
-        <v>3990.516066014277</v>
+        <v>1629.421297544535</v>
       </c>
       <c r="W34" t="n">
-        <v>3836.630859230301</v>
+        <v>1340.004127507574</v>
       </c>
       <c r="X34" t="n">
-        <v>3836.630859230301</v>
+        <v>1112.014576609557</v>
       </c>
       <c r="Y34" t="n">
-        <v>3615.838280086771</v>
+        <v>891.2219974660266</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198262</v>
+        <v>2010.371253198263</v>
       </c>
       <c r="D35" t="n">
         <v>1652.105554591512</v>
@@ -6925,10 +6925,10 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036603</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H35" t="n">
         <v>141.5554198924157</v>
@@ -6937,25 +6937,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J35" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K35" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1446.817951496195</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M35" t="n">
-        <v>2223.623655967288</v>
+        <v>2071.843273574333</v>
       </c>
       <c r="N35" t="n">
-        <v>3185.953071395928</v>
+        <v>3034.172689002973</v>
       </c>
       <c r="O35" t="n">
-        <v>4049.465812105078</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P35" t="n">
-        <v>4430.198854229707</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q35" t="n">
         <v>4667.940766252041</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>660.0546027495486</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C37" t="n">
-        <v>491.1184198216417</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G37" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H37" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I37" t="n">
         <v>95.71766921524075</v>
@@ -7122,25 +7122,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1720.613957833929</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T37" t="n">
-        <v>1498.656398353472</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U37" t="n">
-        <v>1209.551093895499</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V37" t="n">
-        <v>1209.551093895499</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W37" t="n">
-        <v>920.1339238585383</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X37" t="n">
-        <v>920.1339238585383</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y37" t="n">
-        <v>841.7030675797884</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="38">
@@ -7159,40 +7159,40 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E38" t="n">
-        <v>1266.317301993268</v>
+        <v>1266.317301993267</v>
       </c>
       <c r="F38" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H38" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I38" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K38" t="n">
-        <v>1086.017693327009</v>
+        <v>918.6120443066559</v>
       </c>
       <c r="L38" t="n">
-        <v>1521.642956557056</v>
+        <v>1767.721909941648</v>
       </c>
       <c r="M38" t="n">
-        <v>2192.883804966332</v>
+        <v>2284.108388731332</v>
       </c>
       <c r="N38" t="n">
-        <v>2722.239765227108</v>
+        <v>3246.437804159972</v>
       </c>
       <c r="O38" t="n">
-        <v>3585.752505936257</v>
+        <v>4109.950544869122</v>
       </c>
       <c r="P38" t="n">
-        <v>4285.066269150654</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q38" t="n">
         <v>4733.000021926294</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7253,25 +7253,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K39" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L39" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M39" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N39" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O39" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P39" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q39" t="n">
         <v>2587.498588679581</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>163.971581253806</v>
+        <v>827.8021284078044</v>
       </c>
       <c r="C40" t="n">
-        <v>163.971581253806</v>
+        <v>658.8659454798975</v>
       </c>
       <c r="D40" t="n">
-        <v>163.971581253806</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="E40" t="n">
-        <v>163.971581253806</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="F40" t="n">
-        <v>163.971581253806</v>
+        <v>508.7493060675617</v>
       </c>
       <c r="G40" t="n">
-        <v>163.971581253806</v>
+        <v>341.001780409306</v>
       </c>
       <c r="H40" t="n">
-        <v>163.971581253806</v>
+        <v>194.3872674976251</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7356,28 +7356,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R40" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T40" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U40" t="n">
-        <v>1117.71125522491</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="V40" t="n">
-        <v>863.0267670190236</v>
+        <v>1747.649893316552</v>
       </c>
       <c r="W40" t="n">
-        <v>573.6095969820631</v>
+        <v>1458.232723279591</v>
       </c>
       <c r="X40" t="n">
-        <v>345.6200460840457</v>
+        <v>1230.243172381574</v>
       </c>
       <c r="Y40" t="n">
-        <v>345.6200460840457</v>
+        <v>1009.450593238044</v>
       </c>
     </row>
     <row r="41">
@@ -7393,16 +7393,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D41" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F41" t="n">
-        <v>855.3313972036598</v>
+        <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155743</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,49 +7411,49 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935953</v>
       </c>
       <c r="K41" t="n">
-        <v>1086.017693327009</v>
+        <v>597.7080858612028</v>
       </c>
       <c r="L41" t="n">
-        <v>1935.127558962002</v>
+        <v>1446.817951496195</v>
       </c>
       <c r="M41" t="n">
-        <v>2451.514037751685</v>
+        <v>2408.222828443783</v>
       </c>
       <c r="N41" t="n">
-        <v>3034.172689002973</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O41" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.525067779331</v>
       </c>
       <c r="P41" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.25810990396</v>
       </c>
       <c r="Q41" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926294</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
       </c>
       <c r="S41" t="n">
-        <v>4673.322552666527</v>
+        <v>4673.322552666526</v>
       </c>
       <c r="T41" t="n">
-        <v>4466.908689902183</v>
+        <v>4466.908689902182</v>
       </c>
       <c r="U41" t="n">
-        <v>4213.370243053371</v>
+        <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709801</v>
+        <v>3882.307355709802</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439686</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7490,25 +7490,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K42" t="n">
-        <v>414.2869325418657</v>
+        <v>488.1430095111818</v>
       </c>
       <c r="L42" t="n">
-        <v>769.6414721740668</v>
+        <v>843.4975491433829</v>
       </c>
       <c r="M42" t="n">
-        <v>1203.680327106302</v>
+        <v>1277.536404075619</v>
       </c>
       <c r="N42" t="n">
-        <v>1663.615543921421</v>
+        <v>1737.471620890737</v>
       </c>
       <c r="O42" t="n">
-        <v>2062.146616470409</v>
+        <v>2136.002693439725</v>
       </c>
       <c r="P42" t="n">
-        <v>2362.66987106769</v>
+        <v>2436.525948037006</v>
       </c>
       <c r="Q42" t="n">
         <v>2587.498588679581</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3679.859284437887</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C43" t="n">
-        <v>3679.859284437887</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D43" t="n">
-        <v>3529.742645025552</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E43" t="n">
-        <v>3381.829551443158</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F43" t="n">
-        <v>3234.939603945248</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G43" t="n">
-        <v>3067.192078286992</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H43" t="n">
-        <v>3067.192078286992</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I43" t="n">
-        <v>2968.522480004608</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="J43" t="n">
-        <v>3010.548472161396</v>
+        <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>3209.446923863251</v>
+        <v>336.6421130738838</v>
       </c>
       <c r="L43" t="n">
-        <v>3519.494898304409</v>
+        <v>646.6900875150413</v>
       </c>
       <c r="M43" t="n">
-        <v>3856.786138513317</v>
+        <v>983.9813277239496</v>
       </c>
       <c r="N43" t="n">
-        <v>4191.491963334901</v>
+        <v>1318.687152545533</v>
       </c>
       <c r="O43" t="n">
-        <v>4484.630670750722</v>
+        <v>1611.825859961355</v>
       </c>
       <c r="P43" t="n">
-        <v>4711.940793992646</v>
+        <v>1839.135983203279</v>
       </c>
       <c r="Q43" t="n">
-        <v>4785.883460762037</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="R43" t="n">
-        <v>4785.883460762037</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>4593.418768623295</v>
+        <v>1628.77411916334</v>
       </c>
       <c r="T43" t="n">
-        <v>4371.461209142839</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U43" t="n">
-        <v>4082.355904684866</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V43" t="n">
-        <v>3827.671416478979</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W43" t="n">
-        <v>3827.671416478979</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X43" t="n">
-        <v>3679.859284437887</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y43" t="n">
-        <v>3679.859284437887</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="44">
@@ -7639,7 +7639,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
@@ -7654,22 +7654,22 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L44" t="n">
-        <v>1676.497326176648</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M44" t="n">
-        <v>2192.883804966332</v>
+        <v>2038.029435346739</v>
       </c>
       <c r="N44" t="n">
-        <v>2722.239765227108</v>
+        <v>2657.180509552855</v>
       </c>
       <c r="O44" t="n">
-        <v>3585.752505936257</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P44" t="n">
-        <v>4285.066269150654</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q44" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R44" t="n">
         <v>4785.883460762037</v>
@@ -7727,7 +7727,7 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J45" t="n">
-        <v>184.4590143936092</v>
+        <v>258.3150913629254</v>
       </c>
       <c r="K45" t="n">
         <v>488.1430095111818</v>
@@ -7782,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>561.6604390533937</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C46" t="n">
-        <v>392.7242561254868</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D46" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E46" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F46" t="n">
         <v>95.71766921524075</v>
@@ -7833,25 +7833,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S46" t="n">
-        <v>1913.078649972671</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T46" t="n">
-        <v>1913.078649972671</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U46" t="n">
-        <v>1736.192692168029</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V46" t="n">
-        <v>1481.508203962142</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W46" t="n">
-        <v>1192.091033925181</v>
+        <v>726.1482640870279</v>
       </c>
       <c r="X46" t="n">
-        <v>964.1014830271636</v>
+        <v>498.1587131890105</v>
       </c>
       <c r="Y46" t="n">
-        <v>743.3089038836334</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8075,10 +8075,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>275.044284299266</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719075</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8309,7 +8309,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>274.4264991783514</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747075</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,10 +8692,10 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,16 +8704,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>312.1868026819718</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>321.7987081714826</v>
+        <v>262.4382983412813</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,10 +8768,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K12" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8929,28 +8929,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>156.4185551713057</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>230.5859793988984</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9020,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>74.60209794880399</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -9169,25 +9169,25 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>216.3242963030045</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9260,13 +9260,13 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>32.49982154847362</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>45.52166981132082</v>
+        <v>3.419393410990523</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>173.105920815174</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>230.5859793988984</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,13 +9479,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>74.60209794880416</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9640,28 +9640,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>296.9138238411149</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>319.7044916020951</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K24" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>43.21704333048638</v>
+        <v>328.7661427834971</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9892,10 +9892,10 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9968,7 +9968,7 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>74.60209794880399</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -10111,13 +10111,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>259.7987504703964</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10211,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>3.419393410990523</v>
@@ -10351,13 +10351,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>90.7021352983225</v>
       </c>
       <c r="M32" t="n">
-        <v>414.8475478694875</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10448,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>3.419393410990523</v>
@@ -10585,28 +10585,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>263.0497229105142</v>
+        <v>34.15539214908426</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10822,28 +10822,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>156.4185551713057</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>4.62073021233266</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10922,7 +10922,7 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>3.419393410990523</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>53.84110201061753</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>260.0527905534096</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11159,7 +11159,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>74.60209794880376</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>3.419393410990523</v>
@@ -11302,13 +11302,13 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>156.4185551713055</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
+        <v>90.7021352983229</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,10 +11375,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>74.60209794880424</v>
       </c>
       <c r="K45" t="n">
-        <v>74.60209794880421</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S13" t="n">
         <v>190.5400452173542</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>97.16498575572086</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>195.1511456265395</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H16" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,16 +23709,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2142514133935</v>
+        <v>151.0132804339154</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>163.4808298384938</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
         <v>97.68290229956057</v>
@@ -23940,7 +23940,7 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S19" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,10 +23949,10 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>223.8458615311859</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,10 +24126,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2142514133935</v>
+        <v>69.42319656624105</v>
       </c>
       <c r="V22" t="n">
-        <v>198.1159005208229</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
         <v>97.68290229956057</v>
@@ -24420,19 +24420,19 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>98.7951201204766</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>214.7379312269276</v>
       </c>
     </row>
     <row r="26">
@@ -24600,25 +24600,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
         <v>97.68290229956057</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>70.32384811398435</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>60.09184015003262</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,25 +24837,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>128.2790503298916</v>
       </c>
       <c r="I31" t="n">
         <v>97.68290229956057</v>
@@ -24888,19 +24888,19 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T31" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>41.10570431579987</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25083,16 +25083,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
         <v>97.68290229956057</v>
@@ -25122,25 +25122,25 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>257.531115833367</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>134.1766436204546</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25329,10 +25329,10 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25371,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>140.9381056361323</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>30.11152938138095</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>90.92144028388269</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>88.36317423427082</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H43" t="n">
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>97.68290229956057</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>151.0132804339154</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>79.37564466835619</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>166.0700504016732</v>
@@ -26073,13 +26073,13 @@
         <v>90.92144028388269</v>
       </c>
       <c r="S46" t="n">
-        <v>190.5400452173542</v>
+        <v>60.09184015003279</v>
       </c>
       <c r="T46" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>111.0971531867979</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204046</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="16">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244623</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244622</v>
       </c>
-      <c r="C2" t="n">
-        <v>759463.6371244623</v>
-      </c>
       <c r="D2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>733542.2088178318</v>
+        <v>733542.2088178317</v>
       </c>
       <c r="F2" t="n">
         <v>733542.2088178317</v>
       </c>
       <c r="G2" t="n">
-        <v>733542.2088178319</v>
+        <v>733542.2088178318</v>
       </c>
       <c r="H2" t="n">
+        <v>733542.2088178315</v>
+      </c>
+      <c r="I2" t="n">
         <v>733542.2088178317</v>
-      </c>
-      <c r="I2" t="n">
-        <v>733542.2088178316</v>
       </c>
       <c r="J2" t="n">
         <v>733542.2088178316</v>
@@ -26343,19 +26343,19 @@
         <v>733542.2088178317</v>
       </c>
       <c r="L2" t="n">
+        <v>733542.2088178318</v>
+      </c>
+      <c r="M2" t="n">
         <v>733542.2088178319</v>
-      </c>
-      <c r="M2" t="n">
-        <v>733542.2088178318</v>
       </c>
       <c r="N2" t="n">
         <v>733542.2088178316</v>
       </c>
       <c r="O2" t="n">
-        <v>733542.2088178319</v>
+        <v>733542.2088178317</v>
       </c>
       <c r="P2" t="n">
-        <v>733542.2088178318</v>
+        <v>733542.2088178317</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145443</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.0967518281</v>
+        <v>708251.096751828</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,13 +26398,13 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>130130.2399694094</v>
+        <v>130130.2399694095</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>4.388213930159792e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924297</v>
+        <v>192206.5963924298</v>
       </c>
       <c r="E4" t="n">
         <v>23693.12563581164</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581163</v>
       </c>
       <c r="G4" t="n">
         <v>23693.12563581164</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581165</v>
+        <v>23693.12563581163</v>
       </c>
       <c r="I4" t="n">
         <v>23693.12563581164</v>
@@ -26450,13 +26450,13 @@
         <v>23693.12563581163</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581168</v>
       </c>
       <c r="N4" t="n">
         <v>23693.12563581164</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.1256358117</v>
+        <v>23693.12563581164</v>
       </c>
       <c r="P4" t="n">
         <v>23693.12563581164</v>
@@ -26484,13 +26484,13 @@
         <v>95967.71339206918</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.7133920692</v>
+        <v>95967.71339206918</v>
       </c>
       <c r="J5" t="n">
         <v>95967.71339206918</v>
@@ -26524,46 +26524,46 @@
         <v>-105569.9165459214</v>
       </c>
       <c r="C6" t="n">
-        <v>484397.9626686231</v>
+        <v>484397.962668623</v>
       </c>
       <c r="D6" t="n">
-        <v>484397.962668623</v>
+        <v>484397.9626686232</v>
       </c>
       <c r="E6" t="n">
-        <v>-94369.7269618771</v>
+        <v>-95070.30610529953</v>
       </c>
       <c r="F6" t="n">
-        <v>613881.3697899509</v>
+        <v>613180.7906465285</v>
       </c>
       <c r="G6" t="n">
-        <v>613881.3697899511</v>
+        <v>613180.7906465286</v>
       </c>
       <c r="H6" t="n">
-        <v>613881.3697899509</v>
+        <v>613180.7906465282</v>
       </c>
       <c r="I6" t="n">
-        <v>613881.3697899508</v>
+        <v>613180.7906465285</v>
       </c>
       <c r="J6" t="n">
-        <v>437458.1505973579</v>
+        <v>436757.5714539354</v>
       </c>
       <c r="K6" t="n">
-        <v>613881.3697899509</v>
+        <v>613180.7906465285</v>
       </c>
       <c r="L6" t="n">
-        <v>613881.3697899511</v>
+        <v>613180.7906465286</v>
       </c>
       <c r="M6" t="n">
-        <v>483751.1298205416</v>
+        <v>483050.5506771191</v>
       </c>
       <c r="N6" t="n">
-        <v>613881.3697899508</v>
+        <v>613180.7906465284</v>
       </c>
       <c r="O6" t="n">
-        <v>613881.369789951</v>
+        <v>613180.7906465285</v>
       </c>
       <c r="P6" t="n">
-        <v>613881.369789951</v>
+        <v>613180.7906465285</v>
       </c>
     </row>
   </sheetData>
@@ -26718,16 +26718,16 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="E4" t="n">
         <v>1196.470865190509</v>
@@ -26804,13 +26804,13 @@
         <v>1196.470865190509</v>
       </c>
       <c r="G4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="H4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="I4" t="n">
-        <v>1196.47086519051</v>
+        <v>1196.470865190509</v>
       </c>
       <c r="J4" t="n">
         <v>1196.470865190509</v>
@@ -26940,13 +26940,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731069</v>
+        <v>687.4987572731068</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359538</v>
+        <v>522.1835924359539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>96.68415872776032</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,22 +27429,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>209.7028375347204</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27536,31 +27536,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>98.0982204591879</v>
+        <v>120.1681237664919</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27590,7 +27590,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
         <v>286.2818742419777</v>
@@ -27602,7 +27602,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27618,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>38.04757247415836</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>306.7451116554089</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,31 +27773,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>114.3154603532113</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>96.50703242634985</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,7 +27818,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27830,13 +27830,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>345.6709743725833</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>240.0716518562661</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28019,22 +28019,22 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>51.16670818343262</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28064,19 +28064,19 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>142.1261138757841</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="36">
@@ -30459,28 +30459,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>8.216875455908505e-13</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>5.48526741269974e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -31041,13 +31041,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
@@ -31065,22 +31065,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,19 +31199,19 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
@@ -31223,13 +31223,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
@@ -31238,7 +31238,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U4" t="n">
         <v>0.0371551145131561</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34792,13 +34792,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>296.2227415328935</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,7 +34859,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624587</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,7 +35029,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>325.1459203262116</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,10 +35412,10 @@
         <v>351.51249545324</v>
       </c>
       <c r="K11" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L11" t="n">
-        <v>440.0255184141885</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M11" t="n">
         <v>521.6025038279632</v>
@@ -35424,16 +35424,16 @@
         <v>972.049914574384</v>
       </c>
       <c r="O11" t="n">
-        <v>803.6217130446302</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P11" t="n">
-        <v>706.3775386004008</v>
+        <v>647.0171287701994</v>
       </c>
       <c r="Q11" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R11" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,10 +35488,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K12" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
         <v>358.9439794264658</v>
@@ -35649,28 +35649,28 @@
         <v>351.51249545324</v>
       </c>
       <c r="K14" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L14" t="n">
         <v>440.0255184141885</v>
       </c>
       <c r="M14" t="n">
-        <v>678.0210589992689</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N14" t="n">
-        <v>534.7029901623998</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O14" t="n">
-        <v>872.2350916254037</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P14" t="n">
-        <v>706.3775386004008</v>
+        <v>615.1648098278165</v>
       </c>
       <c r="Q14" t="n">
         <v>452.4583361370094</v>
       </c>
       <c r="R14" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35725,7 +35725,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
@@ -35740,7 +35740,7 @@
         <v>464.5810270859779</v>
       </c>
       <c r="O15" t="n">
-        <v>477.1587368871758</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P15" t="n">
         <v>303.558843027557</v>
@@ -35889,25 +35889,25 @@
         <v>648.7905592051117</v>
       </c>
       <c r="L17" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M17" t="n">
-        <v>737.9268001309678</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N17" t="n">
-        <v>972.049914574384</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O17" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P17" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R17" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,7 +35962,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
@@ -35980,13 +35980,13 @@
         <v>402.5566389383719</v>
       </c>
       <c r="P18" t="n">
-        <v>336.0586645760306</v>
+        <v>303.558843027557</v>
       </c>
       <c r="Q18" t="n">
         <v>152.4976168106822</v>
       </c>
       <c r="R18" t="n">
-        <v>42.1022764003303</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K20" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L20" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M20" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N20" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O20" t="n">
-        <v>664.5408311778324</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P20" t="n">
-        <v>384.5788304289181</v>
+        <v>615.1648098278165</v>
       </c>
       <c r="Q20" t="n">
         <v>452.4583361370094</v>
       </c>
       <c r="R20" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,13 +36199,13 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
-        <v>433.5460773752699</v>
+        <v>358.9439794264658</v>
       </c>
       <c r="M21" t="n">
         <v>438.423085790137</v>
@@ -36360,28 +36360,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K23" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L23" t="n">
-        <v>857.686732964639</v>
+        <v>736.9393422553035</v>
       </c>
       <c r="M23" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N23" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O23" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254037</v>
       </c>
       <c r="P23" t="n">
-        <v>704.2833220310132</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q23" t="n">
         <v>240.1433454771048</v>
       </c>
       <c r="R23" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K24" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
         <v>358.9439794264658</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
         <v>324.6451466339469</v>
       </c>
       <c r="L26" t="n">
-        <v>440.0255184141885</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M26" t="n">
-        <v>564.8195471584496</v>
+        <v>850.3686466114603</v>
       </c>
       <c r="N26" t="n">
         <v>972.049914574384</v>
@@ -36612,10 +36612,10 @@
         <v>872.2350916254037</v>
       </c>
       <c r="P26" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q26" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R26" t="n">
         <v>53.41761498560004</v>
@@ -36673,7 +36673,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709661</v>
@@ -36688,7 +36688,7 @@
         <v>464.5810270859779</v>
       </c>
       <c r="O27" t="n">
-        <v>477.1587368871758</v>
+        <v>402.5566389383719</v>
       </c>
       <c r="P27" t="n">
         <v>303.558843027557</v>
@@ -36831,13 +36831,13 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K29" t="n">
         <v>648.7905592051117</v>
       </c>
       <c r="L29" t="n">
-        <v>699.824268884585</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M29" t="n">
         <v>521.6025038279632</v>
@@ -36910,7 +36910,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
@@ -36931,7 +36931,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37071,13 +37071,13 @@
         <v>351.51249545324</v>
       </c>
       <c r="K32" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L32" t="n">
-        <v>440.0255184141885</v>
+        <v>530.727653712511</v>
       </c>
       <c r="M32" t="n">
-        <v>936.4500516974507</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N32" t="n">
         <v>534.7029901623998</v>
@@ -37147,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709661</v>
@@ -37168,7 +37168,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>182.4158802811663</v>
+        <v>351.51249545324</v>
       </c>
       <c r="K35" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051117</v>
       </c>
       <c r="L35" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M35" t="n">
-        <v>784.6522267384775</v>
+        <v>555.7578959770475</v>
       </c>
       <c r="N35" t="n">
         <v>972.049914574384</v>
       </c>
       <c r="O35" t="n">
-        <v>872.2350916254037</v>
+        <v>491.4349103626583</v>
       </c>
       <c r="P35" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370094</v>
       </c>
       <c r="R35" t="n">
         <v>119.1340348585825</v>
@@ -37542,28 +37542,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K38" t="n">
         <v>648.7905592051117</v>
       </c>
       <c r="L38" t="n">
-        <v>440.0255184141885</v>
+        <v>857.686732964639</v>
       </c>
       <c r="M38" t="n">
-        <v>678.0210589992689</v>
+        <v>521.6025038279632</v>
       </c>
       <c r="N38" t="n">
-        <v>534.7029901623998</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O38" t="n">
         <v>872.2350916254037</v>
       </c>
       <c r="P38" t="n">
-        <v>706.3775386004008</v>
+        <v>389.1995606412508</v>
       </c>
       <c r="Q38" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R38" t="n">
         <v>53.41761498560004</v>
@@ -37621,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
@@ -37642,7 +37642,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>648.7905592051117</v>
+        <v>324.6451466339469</v>
       </c>
       <c r="L41" t="n">
         <v>857.686732964639</v>
       </c>
       <c r="M41" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207957</v>
       </c>
       <c r="N41" t="n">
-        <v>588.5440921730174</v>
+        <v>972.049914574384</v>
       </c>
       <c r="O41" t="n">
-        <v>491.4349103626583</v>
+        <v>751.487700916068</v>
       </c>
       <c r="P41" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289181</v>
       </c>
       <c r="Q41" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771048</v>
       </c>
       <c r="R41" t="n">
-        <v>119.1340348585825</v>
+        <v>53.41761498560004</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
@@ -37879,7 +37879,7 @@
         <v>303.558843027557</v>
       </c>
       <c r="Q42" t="n">
-        <v>227.0997147594859</v>
+        <v>152.4976168106822</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,13 +38022,13 @@
         <v>648.7905592051117</v>
       </c>
       <c r="L44" t="n">
-        <v>596.444073585494</v>
+        <v>440.0255184141885</v>
       </c>
       <c r="M44" t="n">
         <v>521.6025038279632</v>
       </c>
       <c r="N44" t="n">
-        <v>534.7029901623998</v>
+        <v>625.4051254607227</v>
       </c>
       <c r="O44" t="n">
         <v>872.2350916254037</v>
@@ -38040,7 +38040,7 @@
         <v>452.4583361370094</v>
       </c>
       <c r="R44" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,10 +38095,10 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>89.63772240239237</v>
+        <v>164.2398203511966</v>
       </c>
       <c r="K45" t="n">
-        <v>306.7515102197703</v>
+        <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
         <v>358.9439794264658</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_6_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3626682.871798704</v>
+        <v>3630233.4315861</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6239134.533256414</v>
+        <v>6239134.533256416</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>840694.972106918</v>
+        <v>840694.9721069179</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7983889.333728429</v>
+        <v>7983889.333728425</v>
       </c>
     </row>
     <row r="11">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>106.3576261490496</v>
       </c>
       <c r="H2" t="n">
-        <v>227.2386140365968</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481174</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -755,10 +755,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553069</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825082</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,13 +785,13 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229333</v>
       </c>
       <c r="S3" t="n">
         <v>156.5912426325231</v>
       </c>
       <c r="T3" t="n">
-        <v>196.8897623984484</v>
+        <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
         <v>225.8879277888686</v>
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>59.66385641544537</v>
+        <v>59.66385641544525</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -907,16 +907,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>375.7365975466366</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>299.9077209869555</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -995,7 +995,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229251</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1071,7 +1071,7 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>59.6638564154453</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>59.66385641544537</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>83.85112090809149</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>83.85112090809108</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>83.58354151325308</v>
+        <v>128.7835007017901</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I11" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>111.4352990145557</v>
       </c>
       <c r="T11" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367008</v>
       </c>
       <c r="U11" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803237</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1469,7 +1469,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I12" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1536,7 +1536,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1578,22 +1578,22 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T13" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U13" t="n">
-        <v>189.0492656576726</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>118.8239420752947</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1627,7 +1627,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I14" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1706,7 +1706,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I15" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>190.5400452173542</v>
+        <v>130.4482050673217</v>
       </c>
       <c r="T16" t="n">
         <v>219.7379838856521</v>
       </c>
       <c r="U16" t="n">
-        <v>135.2009709794781</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1864,7 +1864,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I17" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,7 +1900,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U17" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -1943,7 +1943,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I18" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2001,16 +2001,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>129.3195104779756</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2052,16 +2052,16 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>130.4482050673214</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T19" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2142514133935</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2101,7 +2101,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I20" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T20" t="n">
-        <v>204.3497241367008</v>
+        <v>204.3497241367009</v>
       </c>
       <c r="U20" t="n">
         <v>251.0030623803221</v>
@@ -2180,7 +2180,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I21" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>28.81869974802235</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S22" t="n">
         <v>190.5400452173542</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U22" t="n">
-        <v>216.7910548471524</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2338,7 +2338,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I23" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I24" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2484,10 +2484,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2142514133935</v>
+        <v>28.68313558002671</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>3.846722125167206</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I26" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2654,7 +2654,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I27" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2769,13 +2769,13 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2142514133935</v>
+        <v>226.122411263361</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>226.4311581865584</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2812,7 +2812,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I29" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040301</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2891,7 +2891,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I30" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>166.0700504016732</v>
       </c>
       <c r="H31" t="n">
-        <v>16.86931745267245</v>
+        <v>16.86931745267268</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3049,7 +3049,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I32" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3128,7 +3128,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I33" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,19 +3186,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>119.740140031905</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3237,13 +3237,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U34" t="n">
-        <v>28.68313558002648</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3286,7 +3286,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I35" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T35" t="n">
         <v>204.3497241367009</v>
       </c>
       <c r="U35" t="n">
-        <v>251.0030623803221</v>
+        <v>251.0030623803219</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3334,7 +3334,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560527</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3365,7 +3365,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I36" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>44.91392558741332</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3474,10 +3474,10 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>130.4482050673214</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T37" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>286.2142514133935</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,7 +3508,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3523,7 +3523,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I38" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3559,7 +3559,7 @@
         <v>204.3497241367009</v>
       </c>
       <c r="U38" t="n">
-        <v>251.0030623803219</v>
+        <v>251.0030623803221</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3602,7 +3602,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I39" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,10 +3663,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>145.148367782564</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>97.68290229956057</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V40" t="n">
-        <v>163.7744690895572</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>158.4928132020625</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I41" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>111.4352990145559</v>
+        <v>111.4352990145557</v>
       </c>
       <c r="T41" t="n">
         <v>204.3497241367009</v>
@@ -3839,7 +3839,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I42" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S43" t="n">
         <v>190.5400452173542</v>
@@ -3954,7 +3954,7 @@
         <v>219.7379838856521</v>
       </c>
       <c r="U43" t="n">
-        <v>135.2009709794781</v>
+        <v>286.2142514133935</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>67.57137291817983</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>295.6178616169272</v>
       </c>
       <c r="I44" t="n">
-        <v>45.37937317040314</v>
+        <v>45.37937317040308</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>111.4352990145557</v>
+        <v>111.4352990145559</v>
       </c>
       <c r="T44" t="n">
-        <v>204.3497241367009</v>
+        <v>204.3497241367016</v>
       </c>
       <c r="U44" t="n">
         <v>251.0030623803221</v>
@@ -4076,7 +4076,7 @@
         <v>90.10654034855867</v>
       </c>
       <c r="I45" t="n">
-        <v>10.50839692030168</v>
+        <v>10.50839692030166</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S46" t="n">
-        <v>130.4482050673214</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T46" t="n">
         <v>219.7379838856521</v>
@@ -4194,7 +4194,7 @@
         <v>286.2142514133935</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>101.1243628899129</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1112.426648284105</v>
+        <v>725.8268082199829</v>
       </c>
       <c r="C2" t="n">
-        <v>1112.426648284105</v>
+        <v>725.8268082199829</v>
       </c>
       <c r="D2" t="n">
-        <v>1112.426648284105</v>
+        <v>725.8268082199829</v>
       </c>
       <c r="E2" t="n">
-        <v>1112.426648284105</v>
+        <v>725.8268082199829</v>
       </c>
       <c r="F2" t="n">
-        <v>701.4407434944976</v>
+        <v>314.8409034303754</v>
       </c>
       <c r="G2" t="n">
-        <v>283.4769353926845</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J2" t="n">
         <v>169.7108380533141</v>
@@ -4336,7 +4336,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,22 +4354,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T2" t="n">
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2169.723949158869</v>
       </c>
       <c r="V2" t="n">
         <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1485.892406545184</v>
       </c>
       <c r="X2" t="n">
         <v>1112.426648284105</v>
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747043</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692488</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102423999</v>
       </c>
       <c r="H3" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204942</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598705</v>
       </c>
       <c r="M3" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N3" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517452</v>
       </c>
       <c r="O3" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537796</v>
       </c>
       <c r="P3" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152625</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4439,19 +4439,19 @@
         <v>2488.762748073963</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4473,22 +4473,22 @@
         <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F4" t="n">
         <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
@@ -4497,43 +4497,43 @@
         <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.7169011658208</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502498</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.26178935949</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064341</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1571.689018870909</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="C5" t="n">
-        <v>1202.726501930497</v>
+        <v>990.5839652830418</v>
       </c>
       <c r="D5" t="n">
-        <v>844.4608033237464</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="E5" t="n">
-        <v>844.4608033237464</v>
+        <v>632.3182666762914</v>
       </c>
       <c r="F5" t="n">
-        <v>433.4748985341388</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036444</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036444</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2465.942913862885</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548715</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2311.057514205144</v>
+        <v>1662.483574129469</v>
       </c>
       <c r="W5" t="n">
-        <v>1958.28885893503</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="X5" t="n">
-        <v>1958.28885893503</v>
+        <v>1359.546482223453</v>
       </c>
       <c r="Y5" t="n">
-        <v>1958.28885893503</v>
+        <v>1359.546482223453</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170821</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359551</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747037</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692481</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961333</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4649,49 +4649,49 @@
         <v>53.94298182036444</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641985</v>
+        <v>309.1903022614629</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598704</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417901</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N6" t="n">
-        <v>1748.695370517452</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O6" t="n">
-        <v>2188.831293537796</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P6" t="n">
-        <v>2525.076107152625</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073962</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196741</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
-        <v>2061.714576167581</v>
+        <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935838</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
-        <v>1156.71331223715</v>
+        <v>1156.713312237151</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="D7" t="n">
-        <v>578.0123447940985</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E7" t="n">
-        <v>430.0992512117053</v>
+        <v>369.8327295799423</v>
       </c>
       <c r="F7" t="n">
-        <v>283.209303713795</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G7" t="n">
-        <v>114.2095034521274</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H7" t="n">
         <v>53.94298182036444</v>
@@ -4749,28 +4749,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>667.8624625746712</v>
       </c>
     </row>
     <row r="8">
@@ -4780,43 +4780,43 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>159.5099885583417</v>
+        <v>159.5099885583422</v>
       </c>
       <c r="C8" t="n">
-        <v>159.5099885583417</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>159.5099885583417</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>159.5099885583417</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
-        <v>152.5644878091383</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>138.6410837477292</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4828,10 +4828,10 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862885</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
         <v>2247.308246834948</v>
@@ -4840,16 +4840,16 @@
         <v>1993.54646147304</v>
       </c>
       <c r="V8" t="n">
-        <v>1662.483574129469</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W8" t="n">
-        <v>1309.714918859355</v>
+        <v>1309.714918859356</v>
       </c>
       <c r="X8" t="n">
-        <v>936.2491605982752</v>
+        <v>936.2491605982757</v>
       </c>
       <c r="Y8" t="n">
-        <v>546.1098286224635</v>
+        <v>546.109828622464</v>
       </c>
     </row>
     <row r="9">
@@ -4859,49 +4859,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C9" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E9" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424008</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H9" t="n">
-        <v>115.9856282673427</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018222</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,31 +4938,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
@@ -5004,10 +5004,10 @@
         <v>184.0273259635867</v>
       </c>
       <c r="X10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y10" t="n">
-        <v>99.59950625323009</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="11">
@@ -5023,10 +5023,10 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.105554591511</v>
+        <v>1652.105554591512</v>
       </c>
       <c r="E11" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F11" t="n">
         <v>855.3313972036599</v>
@@ -5038,40 +5038,40 @@
         <v>141.5554198924156</v>
       </c>
       <c r="I11" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J11" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139485</v>
       </c>
       <c r="K11" t="n">
-        <v>765.1137348815558</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L11" t="n">
-        <v>1614.223600516548</v>
+        <v>1930.018791592164</v>
       </c>
       <c r="M11" t="n">
-        <v>2130.610079306232</v>
+        <v>2446.405270381847</v>
       </c>
       <c r="N11" t="n">
-        <v>3092.939494734872</v>
+        <v>2975.761230642624</v>
       </c>
       <c r="O11" t="n">
-        <v>3579.460055993904</v>
+        <v>3839.273971351774</v>
       </c>
       <c r="P11" t="n">
-        <v>4220.007013476401</v>
+        <v>4220.007013476403</v>
       </c>
       <c r="Q11" t="n">
-        <v>4667.940766252041</v>
+        <v>4667.940766252043</v>
       </c>
       <c r="R11" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762039</v>
       </c>
       <c r="S11" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666528</v>
       </c>
       <c r="T11" t="n">
-        <v>4466.908689902182</v>
+        <v>4466.908689902184</v>
       </c>
       <c r="U11" t="n">
         <v>4213.370243053372</v>
@@ -5080,10 +5080,10 @@
         <v>3882.307355709801</v>
       </c>
       <c r="W11" t="n">
-        <v>3529.538700439687</v>
+        <v>3529.538700439688</v>
       </c>
       <c r="X11" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y11" t="n">
         <v>2765.933610202796</v>
@@ -5117,22 +5117,22 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I12" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J12" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K12" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L12" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M12" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N12" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O12" t="n">
         <v>2136.002693439725</v>
@@ -5175,43 +5175,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>580.3144713837966</v>
+        <v>432.4013778014034</v>
       </c>
       <c r="C13" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734966</v>
       </c>
       <c r="D13" t="n">
-        <v>411.3782884558896</v>
+        <v>263.4651948734966</v>
       </c>
       <c r="E13" t="n">
-        <v>263.4651948734965</v>
+        <v>263.4651948734966</v>
       </c>
       <c r="F13" t="n">
-        <v>263.4651948734965</v>
+        <v>263.4651948734966</v>
       </c>
       <c r="G13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="H13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="I13" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524079</v>
       </c>
       <c r="J13" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L13" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M13" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N13" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O13" t="n">
         <v>1611.825859961355</v>
@@ -5226,25 +5226,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S13" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T13" t="n">
-        <v>1691.121090492214</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U13" t="n">
-        <v>1500.162236292545</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V13" t="n">
-        <v>1500.162236292545</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W13" t="n">
-        <v>1210.745066255584</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="X13" t="n">
-        <v>982.7555153575664</v>
+        <v>834.8424217751733</v>
       </c>
       <c r="Y13" t="n">
-        <v>761.9629362140363</v>
+        <v>614.0498426316432</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2010.371253198262</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.105554591512</v>
+        <v>1652.105554591511</v>
       </c>
       <c r="E14" t="n">
         <v>1266.317301993267</v>
       </c>
       <c r="F14" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036597</v>
       </c>
       <c r="G14" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H14" t="n">
         <v>141.5554198924156</v>
@@ -5278,25 +5278,25 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J14" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K14" t="n">
-        <v>765.1137348815558</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L14" t="n">
-        <v>1200.738998111603</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M14" t="n">
-        <v>2162.143875059191</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N14" t="n">
-        <v>3124.473290487831</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O14" t="n">
-        <v>3610.993851746863</v>
+        <v>4049.465812105077</v>
       </c>
       <c r="P14" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229707</v>
       </c>
       <c r="Q14" t="n">
         <v>4667.940766252041</v>
@@ -5317,10 +5317,10 @@
         <v>3882.307355709801</v>
       </c>
       <c r="W14" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X14" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y14" t="n">
         <v>2765.933610202796</v>
@@ -5357,19 +5357,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J15" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K15" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L15" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M15" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N15" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O15" t="n">
         <v>2136.002693439725</v>
@@ -5439,16 +5439,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L16" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M16" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N16" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O16" t="n">
         <v>1611.825859961355</v>
@@ -5460,13 +5460,13 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R16" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S16" t="n">
-        <v>1628.77411916334</v>
+        <v>1781.312786268305</v>
       </c>
       <c r="T16" t="n">
-        <v>1406.816559682884</v>
+        <v>1559.355226787849</v>
       </c>
       <c r="U16" t="n">
         <v>1270.249922329876</v>
@@ -5500,13 +5500,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E17" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F17" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036606</v>
       </c>
       <c r="G17" t="n">
-        <v>440.1593205155744</v>
+        <v>440.159320515575</v>
       </c>
       <c r="H17" t="n">
         <v>141.5554198924156</v>
@@ -5524,10 +5524,10 @@
         <v>1521.642956557056</v>
       </c>
       <c r="M17" t="n">
-        <v>2038.029435346739</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N17" t="n">
-        <v>2657.180509552855</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O17" t="n">
         <v>3520.693250262004</v>
@@ -5551,13 +5551,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V17" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W17" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X17" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y17" t="n">
         <v>2765.933610202796</v>
@@ -5594,19 +5594,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J18" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K18" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L18" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M18" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N18" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O18" t="n">
         <v>2136.002693439725</v>
@@ -5649,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>95.71766921524075</v>
+        <v>562.6835851378764</v>
       </c>
       <c r="C19" t="n">
-        <v>95.71766921524075</v>
+        <v>393.7474022099696</v>
       </c>
       <c r="D19" t="n">
-        <v>95.71766921524075</v>
+        <v>243.6307627976338</v>
       </c>
       <c r="E19" t="n">
         <v>95.71766921524075</v>
@@ -5676,16 +5676,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K19" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L19" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M19" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N19" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O19" t="n">
         <v>1611.825859961355</v>
@@ -5700,25 +5700,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S19" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T19" t="n">
-        <v>1559.355226787849</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U19" t="n">
-        <v>1270.249922329876</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V19" t="n">
-        <v>1015.565434123989</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="W19" t="n">
-        <v>726.1482640870279</v>
+        <v>1142.091483338995</v>
       </c>
       <c r="X19" t="n">
-        <v>498.1587131890105</v>
+        <v>914.1019324409779</v>
       </c>
       <c r="Y19" t="n">
-        <v>277.3661340454805</v>
+        <v>693.3093532974477</v>
       </c>
     </row>
     <row r="20">
@@ -5743,7 +5743,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G20" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H20" t="n">
         <v>141.5554198924156</v>
@@ -5755,19 +5755,19 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K20" t="n">
-        <v>765.1137348815558</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L20" t="n">
-        <v>1200.738998111603</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M20" t="n">
-        <v>2162.143875059191</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N20" t="n">
-        <v>3124.473290487831</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O20" t="n">
-        <v>3610.993851746863</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P20" t="n">
         <v>4220.007013476401</v>
@@ -5831,19 +5831,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J21" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K21" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L21" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M21" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N21" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O21" t="n">
         <v>2136.002693439725</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C22" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D22" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E22" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F22" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G22" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H22" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I22" t="n">
         <v>95.71766921524075</v>
@@ -5913,16 +5913,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K22" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L22" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M22" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N22" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O22" t="n">
         <v>1611.825859961355</v>
@@ -5934,28 +5934,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R22" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S22" t="n">
-        <v>1720.613957833929</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T22" t="n">
-        <v>1720.613957833929</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U22" t="n">
-        <v>1501.633094351957</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V22" t="n">
-        <v>1246.94860614607</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W22" t="n">
-        <v>957.5314361091092</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X22" t="n">
-        <v>729.5418852110919</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y22" t="n">
-        <v>508.7493060675617</v>
+        <v>124.8274669405158</v>
       </c>
     </row>
     <row r="23">
@@ -5980,37 +5980,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G23" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H23" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I23" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J23" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7080858612028</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L23" t="n">
-        <v>1327.278034693953</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M23" t="n">
-        <v>2288.682911641541</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N23" t="n">
-        <v>3251.012327070182</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O23" t="n">
-        <v>4114.525067779331</v>
+        <v>3520.693250262004</v>
       </c>
       <c r="P23" t="n">
-        <v>4495.25810990396</v>
+        <v>4220.007013476401</v>
       </c>
       <c r="Q23" t="n">
-        <v>4733.000021926294</v>
+        <v>4667.940766252041</v>
       </c>
       <c r="R23" t="n">
         <v>4785.883460762037</v>
@@ -6068,19 +6068,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J24" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K24" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L24" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M24" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N24" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O24" t="n">
         <v>2136.002693439725</v>
@@ -6123,16 +6123,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>414.7704915554834</v>
+        <v>709.5735326357868</v>
       </c>
       <c r="C25" t="n">
-        <v>245.8343086275765</v>
+        <v>540.6373497078799</v>
       </c>
       <c r="D25" t="n">
-        <v>95.71766921524075</v>
+        <v>390.5207102955442</v>
       </c>
       <c r="E25" t="n">
-        <v>95.71766921524075</v>
+        <v>242.6076167131511</v>
       </c>
       <c r="F25" t="n">
         <v>95.71766921524075</v>
@@ -6150,16 +6150,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K25" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L25" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M25" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N25" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O25" t="n">
         <v>1611.825859961355</v>
@@ -6171,28 +6171,28 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R25" t="n">
-        <v>1821.238811302082</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="S25" t="n">
-        <v>1628.77411916334</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="T25" t="n">
-        <v>1406.816559682884</v>
+        <v>1913.078649972671</v>
       </c>
       <c r="U25" t="n">
-        <v>1117.71125522491</v>
+        <v>1884.105785750422</v>
       </c>
       <c r="V25" t="n">
-        <v>1117.71125522491</v>
+        <v>1629.421297544535</v>
       </c>
       <c r="W25" t="n">
-        <v>828.2940851879498</v>
+        <v>1340.004127507574</v>
       </c>
       <c r="X25" t="n">
-        <v>600.3045342899325</v>
+        <v>1112.014576609557</v>
       </c>
       <c r="Y25" t="n">
-        <v>596.4189563857232</v>
+        <v>891.2219974660266</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G26" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H26" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I26" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J26" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K26" t="n">
-        <v>597.7080858612028</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L26" t="n">
-        <v>1446.817951496195</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M26" t="n">
-        <v>2288.682911641541</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N26" t="n">
-        <v>3251.012327070182</v>
+        <v>3370.552243872424</v>
       </c>
       <c r="O26" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P26" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q26" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R26" t="n">
         <v>4785.883460762037</v>
@@ -6305,19 +6305,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J27" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K27" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L27" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M27" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N27" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O27" t="n">
         <v>2136.002693439725</v>
@@ -6387,16 +6387,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K28" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L28" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M28" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N28" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O28" t="n">
         <v>1611.825859961355</v>
@@ -6417,10 +6417,10 @@
         <v>1498.656398353472</v>
       </c>
       <c r="U28" t="n">
-        <v>1209.551093895499</v>
+        <v>1270.249922329876</v>
       </c>
       <c r="V28" t="n">
-        <v>954.8666056896121</v>
+        <v>1015.565434123989</v>
       </c>
       <c r="W28" t="n">
         <v>726.1482640870279</v>
@@ -6451,40 +6451,40 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F29" t="n">
-        <v>855.3313972036599</v>
+        <v>855.3313972036603</v>
       </c>
       <c r="G29" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155749</v>
       </c>
       <c r="H29" t="n">
-        <v>141.5554198924156</v>
+        <v>141.5554198924161</v>
       </c>
       <c r="I29" t="n">
         <v>95.71766921524075</v>
       </c>
       <c r="J29" t="n">
-        <v>443.7150397139484</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K29" t="n">
-        <v>1086.017693327009</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L29" t="n">
-        <v>1611.438070502395</v>
+        <v>1327.278034693952</v>
       </c>
       <c r="M29" t="n">
-        <v>2127.824549292079</v>
+        <v>2288.68291164154</v>
       </c>
       <c r="N29" t="n">
-        <v>2657.180509552855</v>
+        <v>3251.012327070181</v>
       </c>
       <c r="O29" t="n">
-        <v>3520.693250262004</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P29" t="n">
-        <v>4220.007013476401</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q29" t="n">
-        <v>4667.940766252041</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R29" t="n">
         <v>4785.883460762037</v>
@@ -6542,19 +6542,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J30" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K30" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L30" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M30" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N30" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O30" t="n">
         <v>2136.002693439725</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>449.4410924000624</v>
+        <v>449.4410924000626</v>
       </c>
       <c r="C31" t="n">
-        <v>280.5049094721555</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="D31" t="n">
-        <v>280.5049094721555</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="E31" t="n">
-        <v>280.5049094721555</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="F31" t="n">
-        <v>280.5049094721555</v>
+        <v>280.5049094721558</v>
       </c>
       <c r="G31" t="n">
-        <v>112.7573838138998</v>
+        <v>112.7573838139</v>
       </c>
       <c r="H31" t="n">
         <v>95.71766921524075</v>
@@ -6624,16 +6624,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K31" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L31" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M31" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N31" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O31" t="n">
         <v>1611.825859961355</v>
@@ -6657,16 +6657,16 @@
         <v>1623.973345514697</v>
       </c>
       <c r="V31" t="n">
-        <v>1369.28885730881</v>
+        <v>1369.288857308811</v>
       </c>
       <c r="W31" t="n">
         <v>1079.87168727185</v>
       </c>
       <c r="X31" t="n">
-        <v>851.8821363738323</v>
+        <v>851.8821363738325</v>
       </c>
       <c r="Y31" t="n">
-        <v>631.0895572303021</v>
+        <v>631.0895572303024</v>
       </c>
     </row>
     <row r="32">
@@ -6694,7 +6694,7 @@
         <v>440.1593205155741</v>
       </c>
       <c r="H32" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I32" t="n">
         <v>95.71766921524075</v>
@@ -6703,19 +6703,19 @@
         <v>443.7150397139484</v>
       </c>
       <c r="K32" t="n">
-        <v>1086.017693327009</v>
+        <v>765.113734881556</v>
       </c>
       <c r="L32" t="n">
-        <v>1611.438070502395</v>
+        <v>1200.738998111603</v>
       </c>
       <c r="M32" t="n">
-        <v>2127.824549292079</v>
+        <v>2162.143875059191</v>
       </c>
       <c r="N32" t="n">
-        <v>2657.180509552855</v>
+        <v>3124.473290487831</v>
       </c>
       <c r="O32" t="n">
-        <v>3520.693250262004</v>
+        <v>3610.993851746863</v>
       </c>
       <c r="P32" t="n">
         <v>4220.007013476401</v>
@@ -6779,19 +6779,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J33" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K33" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L33" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M33" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N33" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O33" t="n">
         <v>2136.002693439725</v>
@@ -6834,16 +6834,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>709.5735326357868</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C34" t="n">
-        <v>540.6373497078799</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D34" t="n">
-        <v>390.5207102955442</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E34" t="n">
-        <v>242.6076167131511</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F34" t="n">
         <v>95.71766921524075</v>
@@ -6861,16 +6861,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K34" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L34" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M34" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N34" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O34" t="n">
         <v>1611.825859961355</v>
@@ -6885,25 +6885,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S34" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T34" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U34" t="n">
-        <v>1884.105785750422</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V34" t="n">
-        <v>1629.421297544535</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W34" t="n">
-        <v>1340.004127507574</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X34" t="n">
-        <v>1112.014576609557</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y34" t="n">
-        <v>891.2219974660266</v>
+        <v>216.6673056111044</v>
       </c>
     </row>
     <row r="35">
@@ -6916,7 +6916,7 @@
         <v>2379.333770138674</v>
       </c>
       <c r="C35" t="n">
-        <v>2010.371253198263</v>
+        <v>2010.371253198262</v>
       </c>
       <c r="D35" t="n">
         <v>1652.105554591512</v>
@@ -6925,13 +6925,13 @@
         <v>1266.317301993268</v>
       </c>
       <c r="F35" t="n">
-        <v>855.3313972036603</v>
+        <v>855.3313972036601</v>
       </c>
       <c r="G35" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155746</v>
       </c>
       <c r="H35" t="n">
-        <v>141.5554198924157</v>
+        <v>141.5554198924156</v>
       </c>
       <c r="I35" t="n">
         <v>95.71766921524075</v>
@@ -6943,13 +6943,13 @@
         <v>1086.017693327009</v>
       </c>
       <c r="L35" t="n">
-        <v>1521.642956557056</v>
+        <v>1611.438070502395</v>
       </c>
       <c r="M35" t="n">
-        <v>2071.843273574333</v>
+        <v>2127.824549292078</v>
       </c>
       <c r="N35" t="n">
-        <v>3034.172689002973</v>
+        <v>2657.180509552854</v>
       </c>
       <c r="O35" t="n">
         <v>3520.693250262004</v>
@@ -6979,7 +6979,7 @@
         <v>3529.538700439687</v>
       </c>
       <c r="X35" t="n">
-        <v>3156.072942178607</v>
+        <v>3156.072942178608</v>
       </c>
       <c r="Y35" t="n">
         <v>2765.933610202796</v>
@@ -7016,19 +7016,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J36" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K36" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L36" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M36" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N36" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O36" t="n">
         <v>2136.002693439725</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.71766921524075</v>
+        <v>477.7689794048512</v>
       </c>
       <c r="C37" t="n">
-        <v>95.71766921524075</v>
+        <v>308.8327964769443</v>
       </c>
       <c r="D37" t="n">
-        <v>95.71766921524075</v>
+        <v>308.8327964769443</v>
       </c>
       <c r="E37" t="n">
-        <v>95.71766921524075</v>
+        <v>308.8327964769443</v>
       </c>
       <c r="F37" t="n">
-        <v>95.71766921524075</v>
+        <v>308.8327964769443</v>
       </c>
       <c r="G37" t="n">
-        <v>95.71766921524075</v>
+        <v>141.0852708186885</v>
       </c>
       <c r="H37" t="n">
         <v>95.71766921524075</v>
@@ -7098,16 +7098,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K37" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L37" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M37" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N37" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O37" t="n">
         <v>1611.825859961355</v>
@@ -7122,25 +7122,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S37" t="n">
-        <v>1781.312786268305</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.355226787849</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.249922329876</v>
+        <v>1431.508653375956</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.565434123989</v>
+        <v>1176.824165170069</v>
       </c>
       <c r="W37" t="n">
-        <v>726.1482640870279</v>
+        <v>887.4069951331082</v>
       </c>
       <c r="X37" t="n">
-        <v>498.1587131890105</v>
+        <v>659.4174442350909</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.3661340454805</v>
+        <v>659.4174442350909</v>
       </c>
     </row>
     <row r="38">
@@ -7165,7 +7165,7 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G38" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155743</v>
       </c>
       <c r="H38" t="n">
         <v>141.5554198924156</v>
@@ -7174,28 +7174,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J38" t="n">
-        <v>276.3093906935953</v>
+        <v>443.7150397139484</v>
       </c>
       <c r="K38" t="n">
-        <v>918.6120443066559</v>
+        <v>1086.017693327009</v>
       </c>
       <c r="L38" t="n">
-        <v>1767.721909941648</v>
+        <v>1521.642956557056</v>
       </c>
       <c r="M38" t="n">
-        <v>2284.108388731332</v>
+        <v>2038.02943534674</v>
       </c>
       <c r="N38" t="n">
-        <v>3246.437804159972</v>
+        <v>3000.35885077538</v>
       </c>
       <c r="O38" t="n">
-        <v>4109.950544869122</v>
+        <v>3863.87159148453</v>
       </c>
       <c r="P38" t="n">
-        <v>4495.25810990396</v>
+        <v>4244.604633609159</v>
       </c>
       <c r="Q38" t="n">
-        <v>4733.000021926294</v>
+        <v>4692.538386384798</v>
       </c>
       <c r="R38" t="n">
         <v>4785.883460762037</v>
@@ -7210,13 +7210,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V38" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W38" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X38" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y38" t="n">
         <v>2765.933610202796</v>
@@ -7253,19 +7253,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J39" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K39" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L39" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M39" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N39" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O39" t="n">
         <v>2136.002693439725</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>827.8021284078044</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="C40" t="n">
-        <v>658.8659454798975</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="D40" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="E40" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="F40" t="n">
-        <v>508.7493060675617</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="G40" t="n">
-        <v>341.001780409306</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="H40" t="n">
-        <v>194.3872674976251</v>
+        <v>95.71766921524075</v>
       </c>
       <c r="I40" t="n">
         <v>95.71766921524075</v>
@@ -7335,16 +7335,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K40" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L40" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M40" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N40" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O40" t="n">
         <v>1611.825859961355</v>
@@ -7359,25 +7359,25 @@
         <v>1913.078649972671</v>
       </c>
       <c r="S40" t="n">
-        <v>1913.078649972671</v>
+        <v>1720.613957833929</v>
       </c>
       <c r="T40" t="n">
-        <v>1913.078649972671</v>
+        <v>1498.656398353472</v>
       </c>
       <c r="U40" t="n">
-        <v>1913.078649972671</v>
+        <v>1209.551093895499</v>
       </c>
       <c r="V40" t="n">
-        <v>1747.649893316552</v>
+        <v>954.8666056896124</v>
       </c>
       <c r="W40" t="n">
-        <v>1458.232723279591</v>
+        <v>665.4494356526518</v>
       </c>
       <c r="X40" t="n">
-        <v>1230.243172381574</v>
+        <v>437.4598847546345</v>
       </c>
       <c r="Y40" t="n">
-        <v>1009.450593238044</v>
+        <v>277.3661340454805</v>
       </c>
     </row>
     <row r="41">
@@ -7396,13 +7396,13 @@
         <v>1652.105554591512</v>
       </c>
       <c r="E41" t="n">
-        <v>1266.317301993267</v>
+        <v>1266.317301993268</v>
       </c>
       <c r="F41" t="n">
         <v>855.3313972036599</v>
       </c>
       <c r="G41" t="n">
-        <v>440.1593205155744</v>
+        <v>440.1593205155741</v>
       </c>
       <c r="H41" t="n">
         <v>141.5554198924156</v>
@@ -7411,28 +7411,28 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J41" t="n">
-        <v>276.3093906935953</v>
+        <v>276.3093906935954</v>
       </c>
       <c r="K41" t="n">
-        <v>597.7080858612028</v>
+        <v>597.708085861203</v>
       </c>
       <c r="L41" t="n">
-        <v>1446.817951496195</v>
+        <v>1446.817951496196</v>
       </c>
       <c r="M41" t="n">
-        <v>2408.222828443783</v>
+        <v>2408.222828443784</v>
       </c>
       <c r="N41" t="n">
         <v>3370.552243872424</v>
       </c>
       <c r="O41" t="n">
-        <v>4114.525067779331</v>
+        <v>4114.52506777933</v>
       </c>
       <c r="P41" t="n">
-        <v>4495.25810990396</v>
+        <v>4495.258109903959</v>
       </c>
       <c r="Q41" t="n">
-        <v>4733.000021926294</v>
+        <v>4733.000021926293</v>
       </c>
       <c r="R41" t="n">
         <v>4785.883460762037</v>
@@ -7447,13 +7447,13 @@
         <v>4213.370243053372</v>
       </c>
       <c r="V41" t="n">
-        <v>3882.307355709802</v>
+        <v>3882.307355709801</v>
       </c>
       <c r="W41" t="n">
-        <v>3529.538700439688</v>
+        <v>3529.538700439687</v>
       </c>
       <c r="X41" t="n">
-        <v>3156.072942178608</v>
+        <v>3156.072942178607</v>
       </c>
       <c r="Y41" t="n">
         <v>2765.933610202796</v>
@@ -7490,19 +7490,19 @@
         <v>95.71766921524075</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K42" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L42" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M42" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N42" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O42" t="n">
         <v>2136.002693439725</v>
@@ -7572,16 +7572,16 @@
         <v>137.7436613720288</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L43" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M43" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N43" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O43" t="n">
         <v>1611.825859961355</v>
@@ -7596,22 +7596,22 @@
         <v>1821.238811302082</v>
       </c>
       <c r="S43" t="n">
-        <v>1628.77411916334</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T43" t="n">
         <v>1406.816559682884</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.565434123989</v>
+        <v>863.0267670190239</v>
       </c>
       <c r="W43" t="n">
-        <v>726.1482640870279</v>
+        <v>573.6095969820633</v>
       </c>
       <c r="X43" t="n">
-        <v>498.1587131890105</v>
+        <v>345.620046084046</v>
       </c>
       <c r="Y43" t="n">
         <v>277.3661340454805</v>
@@ -7639,43 +7639,43 @@
         <v>855.3313972036599</v>
       </c>
       <c r="G44" t="n">
-        <v>440.1593205155741</v>
+        <v>440.1593205155744</v>
       </c>
       <c r="H44" t="n">
         <v>141.5554198924156</v>
       </c>
       <c r="I44" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J44" t="n">
-        <v>443.7150397139484</v>
+        <v>443.7150397139485</v>
       </c>
       <c r="K44" t="n">
-        <v>1086.017693327009</v>
+        <v>846.0823685525716</v>
       </c>
       <c r="L44" t="n">
-        <v>1521.642956557056</v>
+        <v>1695.192234187564</v>
       </c>
       <c r="M44" t="n">
-        <v>2038.029435346739</v>
+        <v>2656.597111135152</v>
       </c>
       <c r="N44" t="n">
-        <v>2657.180509552855</v>
+        <v>3185.953071395928</v>
       </c>
       <c r="O44" t="n">
-        <v>3520.693250262004</v>
+        <v>4049.465812105078</v>
       </c>
       <c r="P44" t="n">
-        <v>4220.007013476401</v>
+        <v>4430.198854229708</v>
       </c>
       <c r="Q44" t="n">
-        <v>4667.940766252041</v>
+        <v>4667.940766252042</v>
       </c>
       <c r="R44" t="n">
-        <v>4785.883460762037</v>
+        <v>4785.883460762038</v>
       </c>
       <c r="S44" t="n">
-        <v>4673.322552666526</v>
+        <v>4673.322552666527</v>
       </c>
       <c r="T44" t="n">
         <v>4466.908689902182</v>
@@ -7724,22 +7724,22 @@
         <v>106.3322115589798</v>
       </c>
       <c r="I45" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J45" t="n">
-        <v>258.3150913629254</v>
+        <v>258.3150913629246</v>
       </c>
       <c r="K45" t="n">
-        <v>488.1430095111818</v>
+        <v>488.1430095111811</v>
       </c>
       <c r="L45" t="n">
-        <v>843.4975491433829</v>
+        <v>843.4975491433823</v>
       </c>
       <c r="M45" t="n">
-        <v>1277.536404075619</v>
+        <v>1277.536404075618</v>
       </c>
       <c r="N45" t="n">
-        <v>1737.471620890737</v>
+        <v>1737.471620890736</v>
       </c>
       <c r="O45" t="n">
         <v>2136.002693439725</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="C46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="D46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="E46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="F46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="G46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="H46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="I46" t="n">
-        <v>95.71766921524075</v>
+        <v>95.71766921524078</v>
       </c>
       <c r="J46" t="n">
-        <v>137.7436613720288</v>
+        <v>137.7436613720289</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6421130738838</v>
+        <v>336.6421130738839</v>
       </c>
       <c r="L46" t="n">
-        <v>646.6900875150413</v>
+        <v>646.6900875150416</v>
       </c>
       <c r="M46" t="n">
-        <v>983.9813277239496</v>
+        <v>983.9813277239498</v>
       </c>
       <c r="N46" t="n">
-        <v>1318.687152545533</v>
+        <v>1318.687152545534</v>
       </c>
       <c r="O46" t="n">
         <v>1611.825859961355</v>
@@ -7830,16 +7830,16 @@
         <v>1913.078649972671</v>
       </c>
       <c r="R46" t="n">
-        <v>1913.078649972671</v>
+        <v>1821.238811302082</v>
       </c>
       <c r="S46" t="n">
-        <v>1781.312786268305</v>
+        <v>1628.774119163341</v>
       </c>
       <c r="T46" t="n">
-        <v>1559.355226787849</v>
+        <v>1406.816559682884</v>
       </c>
       <c r="U46" t="n">
-        <v>1270.249922329876</v>
+        <v>1117.711255224911</v>
       </c>
       <c r="V46" t="n">
         <v>1015.565434123989</v>
@@ -8060,7 +8060,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719075</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8315,7 +8315,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951776</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747075</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,22 +8692,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>412.5008434698061</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>262.4382983412813</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8768,7 +8768,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880333</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -8792,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8941,13 +8941,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>194.3363706804256</v>
       </c>
       <c r="P14" t="n">
-        <v>230.5859793988984</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9029,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9175,7 +9175,7 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>90.7021352983229</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O17" t="n">
         <v>380.8001812627454</v>
@@ -9242,7 +9242,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9266,7 +9266,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9403,22 +9403,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>230.5859793988984</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9479,7 +9479,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9503,7 +9503,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>296.9138238411149</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>90.70213529832199</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9883,13 +9883,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>328.7661427834971</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>90.7021352983225</v>
+        <v>296.9138238411135</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10190,7 +10190,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10214,7 +10214,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10351,22 +10351,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
-        <v>90.7021352983225</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>230.5859793988982</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10427,7 +10427,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10591,16 +10591,16 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>90.70213529832193</v>
       </c>
       <c r="M35" t="n">
-        <v>34.15539214908426</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,13 +10822,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10840,13 +10840,13 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>4.62073021233266</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.87033893080309</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10901,7 +10901,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>260.0527905534096</v>
+        <v>260.0527905534082</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -11138,7 +11138,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880339</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -11162,7 +11162,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,25 +11299,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>81.78649865759138</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>90.7021352983229</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>74.60209794880424</v>
+        <v>74.60209794880333</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.419393410990523</v>
+        <v>3.419393410990466</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23424,7 +23424,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23436,7 +23436,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I13" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,25 +23463,25 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S13" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>97.16498575572086</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>167.6990562612963</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I16" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>60.09184015003257</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0132804339154</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23889,16 +23889,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>50.51246970396173</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23910,7 +23910,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I19" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,19 +23937,19 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S19" t="n">
-        <v>60.09184015003279</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>151.013280433915</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>69.42319656624105</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24372,10 +24372,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0700504016732</v>
@@ -24384,7 +24384,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I25" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>190.5400452173542</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>257.5311158333668</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>214.7379312269276</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24621,7 +24621,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I28" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,13 +24657,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>60.09184015003251</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>60.09184015003262</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>128.2790503298916</v>
+        <v>128.2790503298913</v>
       </c>
       <c r="I31" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S31" t="n">
         <v>190.5400452173542</v>
@@ -25074,19 +25074,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>60.09184015003234</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>166.0700504016732</v>
@@ -25095,7 +25095,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I34" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S34" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>257.531115833367</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0700504016732</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>145.148367782564</v>
+        <v>100.2344421951507</v>
       </c>
       <c r="I37" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S37" t="n">
-        <v>60.09184015003279</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.7379838856521</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25551,10 +25551,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.0700504016732</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>145.148367782564</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,19 +25596,19 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>90.92144028388269</v>
+        <v>90.92144028388266</v>
       </c>
       <c r="S40" t="n">
-        <v>190.5400452173542</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>219.7379838856521</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2142514133935</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>88.36317423427082</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>60.09184015003234</v>
       </c>
     </row>
     <row r="41">
@@ -25806,7 +25806,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I43" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,7 +25842,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>151.0132804339154</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>151.013280433915</v>
       </c>
     </row>
     <row r="44">
@@ -26043,7 +26043,7 @@
         <v>145.148367782564</v>
       </c>
       <c r="I46" t="n">
-        <v>97.68290229956057</v>
+        <v>97.68290229956055</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>90.92144028388269</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>60.09184015003279</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>151.0132804339151</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204044</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>677141.6477204046</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>677141.6477204044</v>
+        <v>677141.6477204043</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>759463.6371244621</v>
+      </c>
+      <c r="C2" t="n">
         <v>759463.6371244623</v>
-      </c>
-      <c r="C2" t="n">
-        <v>759463.6371244622</v>
       </c>
       <c r="D2" t="n">
         <v>759463.6371244624</v>
       </c>
       <c r="E2" t="n">
-        <v>733542.2088178317</v>
+        <v>733542.2088178323</v>
       </c>
       <c r="F2" t="n">
-        <v>733542.2088178317</v>
+        <v>733542.2088178322</v>
       </c>
       <c r="G2" t="n">
+        <v>733542.2088178322</v>
+      </c>
+      <c r="H2" t="n">
+        <v>733542.2088178319</v>
+      </c>
+      <c r="I2" t="n">
+        <v>733542.2088178321</v>
+      </c>
+      <c r="J2" t="n">
+        <v>733542.2088178322</v>
+      </c>
+      <c r="K2" t="n">
+        <v>733542.2088178319</v>
+      </c>
+      <c r="L2" t="n">
+        <v>733542.2088178319</v>
+      </c>
+      <c r="M2" t="n">
+        <v>733542.2088178321</v>
+      </c>
+      <c r="N2" t="n">
+        <v>733542.2088178319</v>
+      </c>
+      <c r="O2" t="n">
         <v>733542.2088178318</v>
       </c>
-      <c r="H2" t="n">
-        <v>733542.2088178315</v>
-      </c>
-      <c r="I2" t="n">
-        <v>733542.2088178317</v>
-      </c>
-      <c r="J2" t="n">
-        <v>733542.2088178316</v>
-      </c>
-      <c r="K2" t="n">
-        <v>733542.2088178317</v>
-      </c>
-      <c r="L2" t="n">
-        <v>733542.2088178318</v>
-      </c>
-      <c r="M2" t="n">
-        <v>733542.2088178319</v>
-      </c>
-      <c r="N2" t="n">
-        <v>733542.2088178316</v>
-      </c>
-      <c r="O2" t="n">
-        <v>733542.2088178317</v>
-      </c>
       <c r="P2" t="n">
-        <v>733542.2088178317</v>
+        <v>733542.2088178322</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145443</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>708251.096751828</v>
+        <v>708251.0967518284</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.219192593</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>2.60042306972432e-11</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26423,43 +26423,43 @@
         <v>192206.5963924298</v>
       </c>
       <c r="D4" t="n">
-        <v>192206.5963924298</v>
+        <v>192206.5963924297</v>
       </c>
       <c r="E4" t="n">
         <v>23693.12563581164</v>
       </c>
       <c r="F4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581161</v>
       </c>
       <c r="G4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="H4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="I4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="J4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="K4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581166</v>
       </c>
       <c r="L4" t="n">
-        <v>23693.12563581163</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="M4" t="n">
-        <v>23693.12563581168</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="N4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="O4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
       <c r="P4" t="n">
-        <v>23693.12563581164</v>
+        <v>23693.12563581162</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.71339206921</v>
       </c>
       <c r="F5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="G5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="H5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="I5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="J5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="K5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="L5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="M5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="N5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="O5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.7133920692</v>
       </c>
       <c r="P5" t="n">
-        <v>95967.71339206918</v>
+        <v>95967.71339206921</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-105569.9165459214</v>
+        <v>-105569.9165459215</v>
       </c>
       <c r="C6" t="n">
-        <v>484397.962668623</v>
+        <v>484397.9626686231</v>
       </c>
       <c r="D6" t="n">
         <v>484397.9626686232</v>
       </c>
       <c r="E6" t="n">
-        <v>-95070.30610529953</v>
+        <v>-94439.78487621924</v>
       </c>
       <c r="F6" t="n">
-        <v>613180.7906465285</v>
+        <v>613811.3118756091</v>
       </c>
       <c r="G6" t="n">
-        <v>613180.7906465286</v>
+        <v>613811.3118756091</v>
       </c>
       <c r="H6" t="n">
-        <v>613180.7906465282</v>
+        <v>613811.3118756089</v>
       </c>
       <c r="I6" t="n">
-        <v>613180.7906465285</v>
+        <v>613811.311875609</v>
       </c>
       <c r="J6" t="n">
-        <v>436757.5714539354</v>
+        <v>437388.0926830162</v>
       </c>
       <c r="K6" t="n">
-        <v>613180.7906465285</v>
+        <v>613811.3118756087</v>
       </c>
       <c r="L6" t="n">
-        <v>613180.7906465286</v>
+        <v>613811.3118756089</v>
       </c>
       <c r="M6" t="n">
-        <v>483050.5506771191</v>
+        <v>483681.0719061994</v>
       </c>
       <c r="N6" t="n">
-        <v>613180.7906465284</v>
+        <v>613811.3118756089</v>
       </c>
       <c r="O6" t="n">
-        <v>613180.7906465285</v>
+        <v>613811.3118756087</v>
       </c>
       <c r="P6" t="n">
-        <v>613180.7906465285</v>
+        <v>613811.3118756091</v>
       </c>
     </row>
   </sheetData>
@@ -26712,13 +26712,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26746,40 +26746,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="F3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="G3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="H3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="I3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="J3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="K3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="L3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="N3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="O3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
       <c r="P3" t="n">
-        <v>1065.242421490193</v>
+        <v>1065.242421490194</v>
       </c>
     </row>
     <row r="4">
@@ -26789,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
       <c r="F4" t="n">
         <v>1196.470865190509</v>
@@ -26831,7 +26831,7 @@
         <v>1196.470865190509</v>
       </c>
       <c r="P4" t="n">
-        <v>1196.470865190509</v>
+        <v>1196.47086519051</v>
       </c>
     </row>
   </sheetData>
@@ -26934,13 +26934,13 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170865</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>687.4987572731068</v>
+        <v>687.4987572731071</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359542</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359543</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27171,7 +27171,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.250528837155401e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>522.1835924359539</v>
+        <v>522.1835924359542</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>307.4265438717454</v>
       </c>
       <c r="H2" t="n">
-        <v>96.68415872776032</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>120.1681237664919</v>
+        <v>120.168123766492</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
@@ -27557,10 +27557,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853702</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491433</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801579</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,16 +27627,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>38.04757247415836</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>49.33324773045751</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>8.100187187665142e-13</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -27791,13 +27791,13 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>96.50703242634985</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,10 +27818,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>87.00133556471249</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>281.421770862916</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27870,7 +27870,7 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>240.0716518562661</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>142.1261138757841</v>
+        <v>96.92615468724708</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29532,7 +29532,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>9.094947017729281e-13</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -30054,7 +30054,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -31041,16 +31041,16 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H2" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J2" t="n">
-        <v>128.8865178727436</v>
+        <v>128.8865178727435</v>
       </c>
       <c r="K2" t="n">
         <v>193.1674799081577</v>
@@ -31062,25 +31062,25 @@
         <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338303</v>
       </c>
       <c r="O2" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P2" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q2" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633794</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727381</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473551</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,31 +31120,31 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141106</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188912</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.97441286890688</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396473</v>
       </c>
       <c r="K3" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649101</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983121</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
       </c>
       <c r="O3" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923046</v>
       </c>
       <c r="P3" t="n">
         <v>155.1528646479577</v>
@@ -31153,16 +31153,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.4465972703498</v>
       </c>
       <c r="S3" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372664</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619151</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078609</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.05628366564444</v>
       </c>
       <c r="I4" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813576</v>
       </c>
       <c r="K4" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302236</v>
       </c>
       <c r="L4" t="n">
         <v>101.2724571246924</v>
       </c>
       <c r="M4" t="n">
-        <v>106.777606591725</v>
+        <v>106.7776065917249</v>
       </c>
       <c r="N4" t="n">
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175841</v>
       </c>
       <c r="P4" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383798</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678006</v>
       </c>
       <c r="R4" t="n">
         <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
-        <v>11.87105908695336</v>
+        <v>11.87105908695335</v>
       </c>
       <c r="T4" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315609</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,13 +31278,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31302,22 +31302,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31390,16 +31390,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,19 +31436,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31460,13 +31460,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31475,7 +31475,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31752,10 +31752,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H11" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I11" t="n">
         <v>165.0965164000028</v>
@@ -31764,31 +31764,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K11" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L11" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M11" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N11" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O11" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P11" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q11" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R11" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S11" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T11" t="n">
         <v>18.74612542743044</v>
@@ -31837,7 +31837,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I12" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J12" t="n">
         <v>216.4753490690591</v>
@@ -31846,34 +31846,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L12" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M12" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N12" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O12" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P12" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q12" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R12" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S12" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T12" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,31 +31910,31 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H13" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I13" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J13" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K13" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L13" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M13" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N13" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O13" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P13" t="n">
         <v>232.3276258279595</v>
@@ -31943,13 +31943,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R13" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S13" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T13" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U13" t="n">
         <v>0.1047779430973962</v>
@@ -31989,10 +31989,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H14" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I14" t="n">
         <v>165.0965164000028</v>
@@ -32001,31 +32001,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K14" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L14" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M14" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N14" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O14" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P14" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q14" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R14" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S14" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T14" t="n">
         <v>18.74612542743044</v>
@@ -32074,7 +32074,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I15" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J15" t="n">
         <v>216.4753490690591</v>
@@ -32083,34 +32083,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L15" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M15" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N15" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O15" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P15" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q15" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R15" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S15" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T15" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,31 +32147,31 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H16" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I16" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J16" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K16" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L16" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M16" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N16" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O16" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P16" t="n">
         <v>232.3276258279595</v>
@@ -32180,13 +32180,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R16" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S16" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T16" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U16" t="n">
         <v>0.1047779430973962</v>
@@ -32226,10 +32226,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H17" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I17" t="n">
         <v>165.0965164000028</v>
@@ -32238,31 +32238,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K17" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L17" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M17" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N17" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O17" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P17" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q17" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R17" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S17" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T17" t="n">
         <v>18.74612542743044</v>
@@ -32311,7 +32311,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I18" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J18" t="n">
         <v>216.4753490690591</v>
@@ -32320,34 +32320,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L18" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M18" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N18" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O18" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P18" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q18" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R18" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S18" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T18" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,31 +32384,31 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H19" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I19" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J19" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K19" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L19" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M19" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N19" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O19" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P19" t="n">
         <v>232.3276258279595</v>
@@ -32417,13 +32417,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R19" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S19" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T19" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U19" t="n">
         <v>0.1047779430973962</v>
@@ -32463,10 +32463,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H20" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I20" t="n">
         <v>165.0965164000028</v>
@@ -32475,31 +32475,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K20" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L20" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M20" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N20" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O20" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P20" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q20" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R20" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S20" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T20" t="n">
         <v>18.74612542743044</v>
@@ -32548,7 +32548,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I21" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J21" t="n">
         <v>216.4753490690591</v>
@@ -32557,34 +32557,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L21" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M21" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N21" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O21" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P21" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q21" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R21" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S21" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T21" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,31 +32621,31 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H22" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I22" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J22" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K22" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L22" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M22" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N22" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O22" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P22" t="n">
         <v>232.3276258279595</v>
@@ -32654,13 +32654,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R22" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S22" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T22" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U22" t="n">
         <v>0.1047779430973962</v>
@@ -32700,10 +32700,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H23" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I23" t="n">
         <v>165.0965164000028</v>
@@ -32712,31 +32712,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K23" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L23" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M23" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N23" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O23" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P23" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q23" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R23" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S23" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T23" t="n">
         <v>18.74612542743044</v>
@@ -32785,7 +32785,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I24" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J24" t="n">
         <v>216.4753490690591</v>
@@ -32794,34 +32794,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L24" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M24" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N24" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O24" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P24" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q24" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R24" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S24" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T24" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,31 +32858,31 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H25" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I25" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J25" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K25" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L25" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M25" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N25" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O25" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P25" t="n">
         <v>232.3276258279595</v>
@@ -32891,13 +32891,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R25" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S25" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T25" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U25" t="n">
         <v>0.1047779430973962</v>
@@ -32937,10 +32937,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H26" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I26" t="n">
         <v>165.0965164000028</v>
@@ -32949,31 +32949,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K26" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L26" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M26" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N26" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O26" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P26" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q26" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R26" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S26" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T26" t="n">
         <v>18.74612542743044</v>
@@ -33022,7 +33022,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I27" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J27" t="n">
         <v>216.4753490690591</v>
@@ -33031,34 +33031,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L27" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M27" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N27" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O27" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P27" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q27" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R27" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S27" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T27" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,31 +33095,31 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H28" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I28" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J28" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K28" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L28" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M28" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N28" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O28" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P28" t="n">
         <v>232.3276258279595</v>
@@ -33128,13 +33128,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R28" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S28" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T28" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U28" t="n">
         <v>0.1047779430973962</v>
@@ -33174,10 +33174,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H29" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I29" t="n">
         <v>165.0965164000028</v>
@@ -33186,31 +33186,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K29" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L29" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M29" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N29" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O29" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P29" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q29" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R29" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S29" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T29" t="n">
         <v>18.74612542743044</v>
@@ -33259,7 +33259,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I30" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J30" t="n">
         <v>216.4753490690591</v>
@@ -33268,34 +33268,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L30" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M30" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N30" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O30" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P30" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q30" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R30" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S30" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T30" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,31 +33332,31 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H31" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I31" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J31" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K31" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L31" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M31" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N31" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O31" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P31" t="n">
         <v>232.3276258279595</v>
@@ -33365,13 +33365,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R31" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S31" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T31" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U31" t="n">
         <v>0.1047779430973962</v>
@@ -33411,10 +33411,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H32" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I32" t="n">
         <v>165.0965164000028</v>
@@ -33423,31 +33423,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K32" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L32" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M32" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N32" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O32" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P32" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q32" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R32" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S32" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T32" t="n">
         <v>18.74612542743044</v>
@@ -33496,7 +33496,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I33" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J33" t="n">
         <v>216.4753490690591</v>
@@ -33505,34 +33505,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L33" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M33" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N33" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O33" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P33" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q33" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R33" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S33" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T33" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,31 +33569,31 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H34" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I34" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J34" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K34" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L34" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M34" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N34" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O34" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P34" t="n">
         <v>232.3276258279595</v>
@@ -33602,13 +33602,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R34" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S34" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T34" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U34" t="n">
         <v>0.1047779430973962</v>
@@ -33648,10 +33648,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H35" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I35" t="n">
         <v>165.0965164000028</v>
@@ -33660,31 +33660,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K35" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L35" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M35" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N35" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O35" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P35" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q35" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R35" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S35" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T35" t="n">
         <v>18.74612542743044</v>
@@ -33733,7 +33733,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I36" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J36" t="n">
         <v>216.4753490690591</v>
@@ -33742,34 +33742,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L36" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M36" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N36" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O36" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P36" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q36" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R36" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S36" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T36" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,31 +33806,31 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H37" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I37" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J37" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K37" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L37" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M37" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N37" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O37" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P37" t="n">
         <v>232.3276258279595</v>
@@ -33839,13 +33839,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R37" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S37" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T37" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U37" t="n">
         <v>0.1047779430973962</v>
@@ -33885,10 +33885,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H38" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I38" t="n">
         <v>165.0965164000028</v>
@@ -33897,31 +33897,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K38" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L38" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M38" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N38" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O38" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P38" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q38" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R38" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S38" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T38" t="n">
         <v>18.74612542743044</v>
@@ -33970,7 +33970,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I39" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J39" t="n">
         <v>216.4753490690591</v>
@@ -33979,34 +33979,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L39" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M39" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N39" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O39" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P39" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q39" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R39" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S39" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T39" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,31 +34043,31 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H40" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I40" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J40" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K40" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L40" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M40" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N40" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O40" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P40" t="n">
         <v>232.3276258279595</v>
@@ -34076,13 +34076,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R40" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S40" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T40" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U40" t="n">
         <v>0.1047779430973962</v>
@@ -34122,10 +34122,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H41" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I41" t="n">
         <v>165.0965164000028</v>
@@ -34134,31 +34134,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K41" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L41" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M41" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N41" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O41" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P41" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q41" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R41" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S41" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T41" t="n">
         <v>18.74612542743044</v>
@@ -34207,7 +34207,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I42" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J42" t="n">
         <v>216.4753490690591</v>
@@ -34216,34 +34216,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L42" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M42" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N42" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O42" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P42" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q42" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R42" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S42" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T42" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,31 +34280,31 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H43" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I43" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J43" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K43" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L43" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M43" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N43" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O43" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P43" t="n">
         <v>232.3276258279595</v>
@@ -34313,13 +34313,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R43" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S43" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T43" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U43" t="n">
         <v>0.1047779430973962</v>
@@ -34359,10 +34359,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.282381593930423</v>
+        <v>4.282381593930424</v>
       </c>
       <c r="H44" t="n">
-        <v>43.85694049883995</v>
+        <v>43.85694049883996</v>
       </c>
       <c r="I44" t="n">
         <v>165.0965164000028</v>
@@ -34371,31 +34371,31 @@
         <v>363.4617848078526</v>
       </c>
       <c r="K44" t="n">
-        <v>544.7349976789275</v>
+        <v>544.7349976789276</v>
       </c>
       <c r="L44" t="n">
-        <v>675.7919333841758</v>
+        <v>675.7919333841759</v>
       </c>
       <c r="M44" t="n">
-        <v>751.9487370552359</v>
+        <v>751.9487370552361</v>
       </c>
       <c r="N44" t="n">
-        <v>764.1160537589908</v>
+        <v>764.1160537589909</v>
       </c>
       <c r="O44" t="n">
-        <v>721.5331217843451</v>
+        <v>721.5331217843452</v>
       </c>
       <c r="P44" t="n">
-        <v>615.8118261841877</v>
+        <v>615.8118261841878</v>
       </c>
       <c r="Q44" t="n">
-        <v>462.4490353515542</v>
+        <v>462.4490353515544</v>
       </c>
       <c r="R44" t="n">
         <v>269.0031527997322</v>
       </c>
       <c r="S44" t="n">
-        <v>97.5847705716896</v>
+        <v>97.58477057168963</v>
       </c>
       <c r="T44" t="n">
         <v>18.74612542743044</v>
@@ -34444,7 +34444,7 @@
         <v>22.1289038879378</v>
       </c>
       <c r="I45" t="n">
-        <v>78.8882359311134</v>
+        <v>78.88823593111341</v>
       </c>
       <c r="J45" t="n">
         <v>216.4753490690591</v>
@@ -34453,34 +34453,34 @@
         <v>369.9908512453251</v>
       </c>
       <c r="L45" t="n">
-        <v>497.49835920634</v>
+        <v>497.4983592063401</v>
       </c>
       <c r="M45" t="n">
-        <v>580.5571197121553</v>
+        <v>580.5571197121554</v>
       </c>
       <c r="N45" t="n">
-        <v>595.9227391693112</v>
+        <v>595.9227391693113</v>
       </c>
       <c r="O45" t="n">
-        <v>545.1528833828163</v>
+        <v>545.1528833828164</v>
       </c>
       <c r="P45" t="n">
-        <v>437.5332504418872</v>
+        <v>437.5332504418873</v>
       </c>
       <c r="Q45" t="n">
-        <v>292.4793908967037</v>
+        <v>292.4793908967038</v>
       </c>
       <c r="R45" t="n">
-        <v>142.2601105529734</v>
+        <v>142.2601105529735</v>
       </c>
       <c r="S45" t="n">
-        <v>42.55944957557516</v>
+        <v>42.55944957557517</v>
       </c>
       <c r="T45" t="n">
-        <v>9.235450805183843</v>
+        <v>9.235450805183845</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1507418520976689</v>
+        <v>0.150741852097669</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,31 +34517,31 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.920928956785594</v>
+        <v>1.920928956785595</v>
       </c>
       <c r="H46" t="n">
         <v>17.07880472487557</v>
       </c>
       <c r="I46" t="n">
-        <v>57.76757262769772</v>
+        <v>57.76757262769773</v>
       </c>
       <c r="J46" t="n">
-        <v>135.8096772447415</v>
+        <v>135.8096772447416</v>
       </c>
       <c r="K46" t="n">
         <v>223.1770187974536</v>
       </c>
       <c r="L46" t="n">
-        <v>285.5897469024692</v>
+        <v>285.5897469024693</v>
       </c>
       <c r="M46" t="n">
-        <v>301.1143454714</v>
+        <v>301.1143454714001</v>
       </c>
       <c r="N46" t="n">
         <v>293.9545193597449</v>
       </c>
       <c r="O46" t="n">
-        <v>271.5145765463858</v>
+        <v>271.5145765463859</v>
       </c>
       <c r="P46" t="n">
         <v>232.3276258279595</v>
@@ -34550,13 +34550,13 @@
         <v>160.8516056450192</v>
       </c>
       <c r="R46" t="n">
-        <v>86.3719510932868</v>
+        <v>86.37195109328682</v>
       </c>
       <c r="S46" t="n">
-        <v>33.47655281961803</v>
+        <v>33.47655281961804</v>
       </c>
       <c r="T46" t="n">
-        <v>8.207605542629356</v>
+        <v>8.207605542629357</v>
       </c>
       <c r="U46" t="n">
         <v>0.1047779430973962</v>
@@ -34713,10 +34713,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P2" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q2" t="n">
         <v>153.9975062898689</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770687</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>529.4413268262937</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P3" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,13 +34859,13 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713951</v>
       </c>
       <c r="L4" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M4" t="n">
-        <v>146.3614835535656</v>
+        <v>146.3614835535655</v>
       </c>
       <c r="N4" t="n">
         <v>148.370846145888</v>
@@ -34874,7 +34874,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P4" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873147</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34950,10 +34950,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35017,7 +35017,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624587</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35029,13 +35029,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730626</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,7 +35096,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35111,7 +35111,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35187,10 +35187,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535575</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K11" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L11" t="n">
-        <v>857.686732964639</v>
+        <v>852.5263618839947</v>
       </c>
       <c r="M11" t="n">
-        <v>521.6025038279632</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N11" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O11" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P11" t="n">
-        <v>647.0171287701994</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q11" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R11" t="n">
         <v>119.1340348585825</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K12" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L12" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M12" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O12" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P12" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q12" t="n">
         <v>152.4976168106822</v>
@@ -35567,16 +35567,16 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K13" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L13" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M13" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N13" t="n">
         <v>338.0866917389735</v>
@@ -35585,10 +35585,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P13" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K14" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L14" t="n">
-        <v>440.0255184141885</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M14" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N14" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O14" t="n">
-        <v>491.4349103626583</v>
+        <v>685.7712810430841</v>
       </c>
       <c r="P14" t="n">
-        <v>615.1648098278165</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q14" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R14" t="n">
         <v>119.1340348585825</v>
@@ -35725,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K15" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L15" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M15" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O15" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P15" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q15" t="n">
         <v>152.4976168106822</v>
@@ -35804,16 +35804,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K16" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L16" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M16" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N16" t="n">
         <v>338.0866917389735</v>
@@ -35822,10 +35822,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P16" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K17" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L17" t="n">
-        <v>440.0255184141885</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M17" t="n">
-        <v>521.6025038279632</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N17" t="n">
-        <v>625.4051254607227</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O17" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P17" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q17" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R17" t="n">
         <v>119.1340348585825</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K18" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L18" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M18" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O18" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P18" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q18" t="n">
         <v>152.4976168106822</v>
@@ -36041,16 +36041,16 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K19" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L19" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M19" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N19" t="n">
         <v>338.0866917389735</v>
@@ -36059,10 +36059,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P19" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q19" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K20" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L20" t="n">
-        <v>440.0255184141885</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M20" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N20" t="n">
-        <v>972.049914574384</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O20" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P20" t="n">
-        <v>615.1648098278165</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q20" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R20" t="n">
         <v>119.1340348585825</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K21" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L21" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M21" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O21" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P21" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q21" t="n">
         <v>152.4976168106822</v>
@@ -36278,16 +36278,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K22" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L22" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M22" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N22" t="n">
         <v>338.0866917389735</v>
@@ -36296,10 +36296,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P22" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q22" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K23" t="n">
-        <v>324.6451466339469</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L23" t="n">
-        <v>736.9393422553035</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M23" t="n">
-        <v>971.1160373207957</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N23" t="n">
-        <v>972.049914574384</v>
+        <v>625.405125460722</v>
       </c>
       <c r="O23" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P23" t="n">
-        <v>384.5788304289181</v>
+        <v>706.3775386004008</v>
       </c>
       <c r="Q23" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R23" t="n">
-        <v>53.41761498560004</v>
+        <v>119.1340348585825</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,25 +36436,25 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K24" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L24" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M24" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O24" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P24" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q24" t="n">
         <v>152.4976168106822</v>
@@ -36515,16 +36515,16 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K25" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L25" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M25" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N25" t="n">
         <v>338.0866917389735</v>
@@ -36533,10 +36533,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P25" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q25" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K26" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L26" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M26" t="n">
-        <v>850.3686466114603</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N26" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O26" t="n">
-        <v>872.2350916254037</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P26" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q26" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R26" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K27" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L27" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M27" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O27" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P27" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q27" t="n">
         <v>152.4976168106822</v>
@@ -36752,16 +36752,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K28" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L28" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M28" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N28" t="n">
         <v>338.0866917389735</v>
@@ -36770,10 +36770,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P28" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q28" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>351.51249545324</v>
+        <v>182.4158802811663</v>
       </c>
       <c r="K29" t="n">
-        <v>648.7905592051117</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L29" t="n">
-        <v>530.727653712511</v>
+        <v>736.9393422553021</v>
       </c>
       <c r="M29" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N29" t="n">
-        <v>534.7029901623998</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O29" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P29" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q29" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R29" t="n">
-        <v>119.1340348585825</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K30" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L30" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M30" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O30" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P30" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q30" t="n">
         <v>152.4976168106822</v>
@@ -36989,16 +36989,16 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K31" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L31" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M31" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N31" t="n">
         <v>338.0866917389735</v>
@@ -37007,10 +37007,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P31" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q31" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K32" t="n">
-        <v>648.7905592051117</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L32" t="n">
-        <v>530.727653712511</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M32" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N32" t="n">
-        <v>534.7029901623998</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O32" t="n">
-        <v>872.2350916254037</v>
+        <v>491.4349103626585</v>
       </c>
       <c r="P32" t="n">
-        <v>706.3775386004008</v>
+        <v>615.1648098278165</v>
       </c>
       <c r="Q32" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R32" t="n">
         <v>119.1340348585825</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K33" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L33" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M33" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O33" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P33" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q33" t="n">
         <v>152.4976168106822</v>
@@ -37226,16 +37226,16 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K34" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L34" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M34" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N34" t="n">
         <v>338.0866917389735</v>
@@ -37244,10 +37244,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P34" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q34" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K35" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L35" t="n">
-        <v>440.0255184141885</v>
+        <v>530.7276537125106</v>
       </c>
       <c r="M35" t="n">
-        <v>555.7578959770475</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N35" t="n">
-        <v>972.049914574384</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O35" t="n">
-        <v>491.4349103626583</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P35" t="n">
         <v>706.3775386004008</v>
       </c>
       <c r="Q35" t="n">
-        <v>452.4583361370094</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R35" t="n">
         <v>119.1340348585825</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K36" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L36" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M36" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O36" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P36" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q36" t="n">
         <v>152.4976168106822</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K37" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L37" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M37" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N37" t="n">
         <v>338.0866917389735</v>
@@ -37481,10 +37481,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P37" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q37" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>182.4158802811663</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K38" t="n">
-        <v>648.7905592051117</v>
+        <v>648.7905592051118</v>
       </c>
       <c r="L38" t="n">
-        <v>857.686732964639</v>
+        <v>440.0255184141886</v>
       </c>
       <c r="M38" t="n">
-        <v>521.6025038279632</v>
+        <v>521.6025038279633</v>
       </c>
       <c r="N38" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O38" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P38" t="n">
-        <v>389.1995606412508</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q38" t="n">
-        <v>240.1433454771048</v>
+        <v>452.4583361370096</v>
       </c>
       <c r="R38" t="n">
-        <v>53.41761498560004</v>
+        <v>94.28795391640318</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K39" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L39" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M39" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O39" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P39" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q39" t="n">
         <v>152.4976168106822</v>
@@ -37700,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K40" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L40" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M40" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N40" t="n">
         <v>338.0866917389735</v>
@@ -37718,10 +37718,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P40" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q40" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>182.4158802811663</v>
       </c>
       <c r="K41" t="n">
-        <v>324.6451466339469</v>
+        <v>324.645146633947</v>
       </c>
       <c r="L41" t="n">
-        <v>857.686732964639</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M41" t="n">
-        <v>971.1160373207957</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N41" t="n">
-        <v>972.049914574384</v>
+        <v>972.0499145743842</v>
       </c>
       <c r="O41" t="n">
-        <v>751.487700916068</v>
+        <v>751.4877009160666</v>
       </c>
       <c r="P41" t="n">
-        <v>384.5788304289181</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q41" t="n">
-        <v>240.1433454771048</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R41" t="n">
-        <v>53.41761498560004</v>
+        <v>53.4176149856001</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K42" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L42" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M42" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O42" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P42" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q42" t="n">
         <v>152.4976168106822</v>
@@ -37937,16 +37937,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K43" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L43" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M43" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N43" t="n">
         <v>338.0866917389735</v>
@@ -37955,10 +37955,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P43" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q43" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38016,28 +38016,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>351.51249545324</v>
+        <v>351.5124954532401</v>
       </c>
       <c r="K44" t="n">
-        <v>648.7905592051117</v>
+        <v>406.4316452915384</v>
       </c>
       <c r="L44" t="n">
-        <v>440.0255184141885</v>
+        <v>857.6867329646391</v>
       </c>
       <c r="M44" t="n">
-        <v>521.6025038279632</v>
+        <v>971.1160373207958</v>
       </c>
       <c r="N44" t="n">
-        <v>625.4051254607227</v>
+        <v>534.7029901624001</v>
       </c>
       <c r="O44" t="n">
-        <v>872.2350916254037</v>
+        <v>872.2350916254038</v>
       </c>
       <c r="P44" t="n">
-        <v>706.3775386004008</v>
+        <v>384.5788304289183</v>
       </c>
       <c r="Q44" t="n">
-        <v>452.4583361370094</v>
+        <v>240.1433454771049</v>
       </c>
       <c r="R44" t="n">
         <v>119.1340348585825</v>
@@ -38095,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>164.2398203511966</v>
+        <v>164.2398203511958</v>
       </c>
       <c r="K45" t="n">
         <v>232.1494122709661</v>
       </c>
       <c r="L45" t="n">
-        <v>358.9439794264658</v>
+        <v>358.9439794264659</v>
       </c>
       <c r="M45" t="n">
-        <v>438.423085790137</v>
+        <v>438.4230857901371</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5810270859779</v>
+        <v>464.581027085978</v>
       </c>
       <c r="O45" t="n">
-        <v>402.5566389383719</v>
+        <v>402.556638938372</v>
       </c>
       <c r="P45" t="n">
-        <v>303.558843027557</v>
+        <v>303.5588430275571</v>
       </c>
       <c r="Q45" t="n">
         <v>152.4976168106822</v>
@@ -38174,16 +38174,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>42.45049712806875</v>
+        <v>42.45049712806878</v>
       </c>
       <c r="K46" t="n">
-        <v>200.9075269715707</v>
+        <v>200.9075269715708</v>
       </c>
       <c r="L46" t="n">
         <v>313.1797721627854</v>
       </c>
       <c r="M46" t="n">
-        <v>340.6982224332406</v>
+        <v>340.6982224332407</v>
       </c>
       <c r="N46" t="n">
         <v>338.0866917389735</v>
@@ -38192,10 +38192,10 @@
         <v>296.0997044604255</v>
       </c>
       <c r="P46" t="n">
-        <v>229.6061850928529</v>
+        <v>229.606185092853</v>
       </c>
       <c r="Q46" t="n">
-        <v>74.68956239332483</v>
+        <v>74.68956239332486</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
